--- a/documentation/COVID-19 Changes/September/LSFIM_KY_v6.xlsx
+++ b/documentation/COVID-19 Changes/September/LSFIM_KY_v6.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21929"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11110"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kyilla\Documents\Git\Fiscal-Impact-Measure\documentation\COVID-19 Changes\September\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/malcalakovalski/Documents/GitHub/Fiscal-Impact-Measure/documentation/COVID-19 Changes/September/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{6979486D-3CB7-4BF4-BBC0-52ECA3DBFB72}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{643A259B-0054-4745-8493-56763EB98EC5}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="855" windowWidth="29040" windowHeight="15840" xr2:uid="{BAFE3F49-3B7E-4387-938E-5F3D7AC6DAFE}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="33600" windowHeight="18880" activeTab="2" xr2:uid="{BAFE3F49-3B7E-4387-938E-5F3D7AC6DAFE}"/>
   </bookViews>
   <sheets>
     <sheet name="main" sheetId="1" r:id="rId1"/>
@@ -39,7 +39,10 @@
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
         <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -341,7 +344,7 @@
           <rPr>
             <b/>
             <sz val="9"/>
-            <color indexed="81"/>
+            <color rgb="FF000000"/>
             <rFont val="Tahoma"/>
             <family val="2"/>
           </rPr>
@@ -350,12 +353,21 @@
         <r>
           <rPr>
             <sz val="9"/>
-            <color indexed="81"/>
+            <color rgb="FF000000"/>
             <rFont val="Tahoma"/>
             <family val="2"/>
           </rPr>
           <t xml:space="preserve">
-table 2.1</t>
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>table 2.1</t>
         </r>
       </text>
     </comment>
@@ -618,14 +630,14 @@
 </file>
 
 <file path=xl/metadata.xml><?xml version="1.0" encoding="utf-8"?>
-<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xlrd="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata" xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray">
   <metadataTypes count="1">
     <metadataType name="XLDAPR" minSupportedVersion="120000" copy="1" pasteAll="1" pasteValues="1" merge="1" splitFirst="1" rowColShift="1" clearFormats="1" clearComments="1" assign="1" coerce="1" cellMeta="1"/>
   </metadataTypes>
   <futureMetadata name="XLDAPR" count="1">
     <bk>
       <extLst>
-        <ext xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray" uri="{bdbb8cdc-fa1e-496e-a857-3c3f30c029c3}">
+        <ext uri="{bdbb8cdc-fa1e-496e-a857-3c3f30c029c3}">
           <xda:dynamicArrayProperties fDynamic="1" fCollapsed="0"/>
         </ext>
       </extLst>
@@ -3238,21 +3250,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -3274,14 +3271,29 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="3" applyFont="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="3" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="3" applyFont="1"/>
     <xf numFmtId="3" fontId="12" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="3" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -3771,30 +3783,30 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{412AAB1A-8B83-4A8D-A21D-8EE870D0279B}">
   <dimension ref="A1:AP95"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <pane xSplit="2" ySplit="3" topLeftCell="C72" activePane="bottomRight" state="frozen"/>
+    <sheetView zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
+      <pane xSplit="2" ySplit="3" topLeftCell="G17" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
-      <selection pane="bottomRight" activeCell="K79" sqref="K79"/>
+      <selection pane="bottomRight" activeCell="M33" sqref="M33"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="22.453125" customWidth="1"/>
-    <col min="2" max="2" width="10.81640625" customWidth="1"/>
-    <col min="3" max="4" width="10.81640625" style="35" customWidth="1"/>
-    <col min="6" max="14" width="16.1796875" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="13.36328125" customWidth="1"/>
-    <col min="16" max="22" width="16.1796875" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="16.1796875" style="35" customWidth="1"/>
-    <col min="24" max="25" width="12.453125" bestFit="1" customWidth="1"/>
-    <col min="26" max="31" width="8.81640625" customWidth="1"/>
-    <col min="32" max="32" width="15.453125" hidden="1" customWidth="1"/>
-    <col min="33" max="33" width="10.453125" hidden="1" customWidth="1"/>
-    <col min="38" max="38" width="8.6328125" style="146"/>
+    <col min="1" max="1" width="22.5" customWidth="1"/>
+    <col min="2" max="2" width="10.83203125" customWidth="1"/>
+    <col min="3" max="4" width="10.83203125" style="35" customWidth="1"/>
+    <col min="6" max="14" width="16.1640625" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="13.33203125" customWidth="1"/>
+    <col min="16" max="22" width="16.1640625" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="16.1640625" style="35" customWidth="1"/>
+    <col min="24" max="25" width="12.5" bestFit="1" customWidth="1"/>
+    <col min="26" max="31" width="8.83203125" customWidth="1"/>
+    <col min="32" max="32" width="15.5" hidden="1" customWidth="1"/>
+    <col min="33" max="33" width="10.5" hidden="1" customWidth="1"/>
+    <col min="38" max="38" width="8.6640625" style="146"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:42" ht="18.5" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:42" ht="19" x14ac:dyDescent="0.25">
       <c r="A1" s="287" t="s">
         <v>163</v>
       </c>
@@ -3829,7 +3841,7 @@
       <c r="AN1" s="288"/>
       <c r="AO1" s="288"/>
     </row>
-    <row r="2" spans="1:42" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:42" x14ac:dyDescent="0.2">
       <c r="F2" s="286" t="s">
         <v>21</v>
       </c>
@@ -3879,7 +3891,7 @@
       <c r="AJ2" s="286"/>
       <c r="AK2" s="230"/>
     </row>
-    <row r="3" spans="1:42" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:42" x14ac:dyDescent="0.2">
       <c r="F3" s="199" t="s">
         <v>5</v>
       </c>
@@ -3980,7 +3992,7 @@
         <v>268</v>
       </c>
     </row>
-    <row r="4" spans="1:42" ht="18.5" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:42" ht="19" x14ac:dyDescent="0.25">
       <c r="A4" s="285" t="s">
         <v>264</v>
       </c>
@@ -4006,7 +4018,7 @@
       <c r="AJ4" s="97"/>
       <c r="AK4" s="97"/>
     </row>
-    <row r="5" spans="1:42" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:42" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>261</v>
       </c>
@@ -4088,7 +4100,7 @@
       <c r="AJ5" s="97"/>
       <c r="AK5" s="97"/>
     </row>
-    <row r="6" spans="1:42" s="171" customFormat="1" ht="12" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:42" s="171" customFormat="1" ht="12" x14ac:dyDescent="0.15">
       <c r="A6" s="170" t="s">
         <v>216</v>
       </c>
@@ -4175,7 +4187,7 @@
       <c r="AK6" s="175"/>
       <c r="AL6" s="241"/>
     </row>
-    <row r="7" spans="1:42" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:42" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>262</v>
       </c>
@@ -4257,7 +4269,7 @@
       <c r="AJ7" s="97"/>
       <c r="AK7" s="97"/>
     </row>
-    <row r="8" spans="1:42" s="213" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:42" s="213" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A8" s="213" t="s">
         <v>263</v>
       </c>
@@ -4291,7 +4303,7 @@
       <c r="AK8" s="214"/>
       <c r="AL8" s="242"/>
     </row>
-    <row r="9" spans="1:42" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:42" x14ac:dyDescent="0.2">
       <c r="F9" s="199"/>
       <c r="G9" s="199"/>
       <c r="H9" s="199"/>
@@ -4311,7 +4323,7 @@
       <c r="AJ9" s="97"/>
       <c r="AK9" s="97"/>
     </row>
-    <row r="10" spans="1:42" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:42" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>1</v>
       </c>
@@ -4326,7 +4338,7 @@
       <c r="AC10" s="146"/>
       <c r="AH10" s="146"/>
     </row>
-    <row r="11" spans="1:42" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:42" x14ac:dyDescent="0.2">
       <c r="A11" s="177" t="s">
         <v>258</v>
       </c>
@@ -4402,7 +4414,7 @@
       <c r="AC11" s="146"/>
       <c r="AH11" s="146"/>
     </row>
-    <row r="12" spans="1:42" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:42" x14ac:dyDescent="0.2">
       <c r="A12" s="218" t="s">
         <v>25</v>
       </c>
@@ -4516,7 +4528,7 @@
       </c>
       <c r="AK12" s="3"/>
     </row>
-    <row r="13" spans="1:42" s="171" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:42" s="171" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A13" s="219" t="s">
         <v>216</v>
       </c>
@@ -4573,7 +4585,7 @@
       <c r="AK13" s="175"/>
       <c r="AL13" s="241"/>
     </row>
-    <row r="14" spans="1:42" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:42" x14ac:dyDescent="0.2">
       <c r="A14" s="218" t="s">
         <v>26</v>
       </c>
@@ -4683,7 +4695,7 @@
       <c r="AO14" s="35"/>
       <c r="AP14" s="35"/>
     </row>
-    <row r="15" spans="1:42" s="171" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:42" s="171" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A15" s="219" t="s">
         <v>216</v>
       </c>
@@ -4740,7 +4752,7 @@
       <c r="AK15" s="186"/>
       <c r="AL15" s="241"/>
     </row>
-    <row r="16" spans="1:42" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:42" x14ac:dyDescent="0.2">
       <c r="A16" s="218" t="s">
         <v>27</v>
       </c>
@@ -4854,7 +4866,7 @@
       </c>
       <c r="AK16" s="3"/>
     </row>
-    <row r="17" spans="1:38" s="171" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:38" s="171" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A17" s="219" t="s">
         <v>216</v>
       </c>
@@ -4911,7 +4923,7 @@
       <c r="AK17" s="175"/>
       <c r="AL17" s="241"/>
     </row>
-    <row r="18" spans="1:38" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A18" s="177" t="s">
         <v>0</v>
       </c>
@@ -5024,7 +5036,7 @@
         <v>237.052464440053</v>
       </c>
     </row>
-    <row r="19" spans="1:38" s="171" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:38" s="171" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A19" s="178" t="s">
         <v>216</v>
       </c>
@@ -5081,7 +5093,7 @@
       <c r="AK19" s="175"/>
       <c r="AL19" s="241"/>
     </row>
-    <row r="20" spans="1:38" s="171" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:38" s="171" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A20" s="170"/>
       <c r="C20" s="282"/>
       <c r="D20" s="282"/>
@@ -5118,7 +5130,7 @@
       <c r="AK20" s="175"/>
       <c r="AL20" s="241"/>
     </row>
-    <row r="21" spans="1:38" s="171" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:38" s="171" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
         <v>265</v>
       </c>
@@ -5157,7 +5169,7 @@
       <c r="AK21" s="175"/>
       <c r="AL21" s="241"/>
     </row>
-    <row r="22" spans="1:38" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A22" s="177" t="s">
         <v>266</v>
       </c>
@@ -5230,7 +5242,7 @@
         <v>2070.4732324185206</v>
       </c>
     </row>
-    <row r="23" spans="1:38" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A23" s="218" t="s">
         <v>22</v>
       </c>
@@ -5300,7 +5312,7 @@
         <v>562.88771268714993</v>
       </c>
     </row>
-    <row r="24" spans="1:38" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A24" s="218" t="s">
         <v>23</v>
       </c>
@@ -5370,7 +5382,7 @@
         <v>1484.7656866695681</v>
       </c>
     </row>
-    <row r="25" spans="1:38" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A25" s="218" t="s">
         <v>24</v>
       </c>
@@ -5440,7 +5452,7 @@
         <v>22.819833061802235</v>
       </c>
     </row>
-    <row r="26" spans="1:38" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A26" s="177" t="s">
         <v>0</v>
       </c>
@@ -5510,7 +5522,7 @@
         <v>89.155823134868967</v>
       </c>
     </row>
-    <row r="27" spans="1:38" s="187" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:38" s="187" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A27" s="178" t="s">
         <v>267</v>
       </c>
@@ -5553,7 +5565,7 @@
       <c r="U27" s="195"/>
       <c r="AL27" s="244"/>
     </row>
-    <row r="28" spans="1:38" s="171" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:38" s="171" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A28" s="196"/>
       <c r="B28" s="197"/>
       <c r="C28" s="282"/>
@@ -5600,7 +5612,7 @@
       <c r="AK28" s="175"/>
       <c r="AL28" s="241"/>
     </row>
-    <row r="29" spans="1:38" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:38" x14ac:dyDescent="0.2">
       <c r="F29" s="199"/>
       <c r="G29" s="199"/>
       <c r="H29" s="199"/>
@@ -5623,7 +5635,7 @@
         <v>2696.6527204036238</v>
       </c>
     </row>
-    <row r="30" spans="1:38" ht="29" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:38" ht="32" x14ac:dyDescent="0.2">
       <c r="A30" s="86" t="s">
         <v>14</v>
       </c>
@@ -5724,7 +5736,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="31" spans="1:38" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:38" ht="16" x14ac:dyDescent="0.2">
       <c r="A31" s="86" t="s">
         <v>3</v>
       </c>
@@ -5849,7 +5861,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="32" spans="1:38" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:38" ht="16" x14ac:dyDescent="0.2">
       <c r="A32" s="93" t="s">
         <v>20</v>
       </c>
@@ -5920,7 +5932,7 @@
       <c r="AK32" s="3"/>
       <c r="AL32" s="184"/>
     </row>
-    <row r="33" spans="1:40" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:40" ht="16" x14ac:dyDescent="0.2">
       <c r="A33" s="86" t="s">
         <v>141</v>
       </c>
@@ -6021,7 +6033,7 @@
       <c r="AK33" s="3"/>
       <c r="AL33" s="184"/>
     </row>
-    <row r="34" spans="1:40" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:40" ht="16" x14ac:dyDescent="0.2">
       <c r="A34" s="115" t="s">
         <v>336</v>
       </c>
@@ -6067,7 +6079,7 @@
       <c r="AK34" s="3"/>
       <c r="AL34" s="184"/>
     </row>
-    <row r="35" spans="1:40" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:40" ht="16" x14ac:dyDescent="0.2">
       <c r="A35" s="117" t="s">
         <v>213</v>
       </c>
@@ -6082,11 +6094,11 @@
         <v>834933.33333333326</v>
       </c>
       <c r="M35" s="199">
-        <f t="shared" ref="M35:R35" si="26">M36+M37</f>
+        <f>M36+M37</f>
         <v>738200</v>
       </c>
       <c r="N35" s="87">
-        <f t="shared" si="26"/>
+        <f t="shared" ref="M35:R35" si="26">N36+N37</f>
         <v>257800</v>
       </c>
       <c r="O35" s="87">
@@ -6125,7 +6137,7 @@
       <c r="AK35" s="3"/>
       <c r="AL35" s="184"/>
     </row>
-    <row r="36" spans="1:40" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:40" ht="16" x14ac:dyDescent="0.2">
       <c r="A36" s="283" t="s">
         <v>138</v>
       </c>
@@ -6205,7 +6217,7 @@
       <c r="AK36" s="3"/>
       <c r="AL36" s="184"/>
     </row>
-    <row r="37" spans="1:40" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:40" ht="16" x14ac:dyDescent="0.2">
       <c r="A37" s="283" t="s">
         <v>162</v>
       </c>
@@ -6247,7 +6259,7 @@
       <c r="AK37" s="3"/>
       <c r="AL37" s="184"/>
     </row>
-    <row r="38" spans="1:40" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:40" ht="16" x14ac:dyDescent="0.2">
       <c r="A38" s="117" t="s">
         <v>139</v>
       </c>
@@ -6330,7 +6342,7 @@
       <c r="AK38" s="3"/>
       <c r="AL38" s="184"/>
     </row>
-    <row r="39" spans="1:40" ht="29" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:40" ht="32" x14ac:dyDescent="0.2">
       <c r="A39" s="86" t="s">
         <v>147</v>
       </c>
@@ -6404,7 +6416,7 @@
       <c r="AK39" s="3"/>
       <c r="AL39" s="184"/>
     </row>
-    <row r="40" spans="1:40" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:40" ht="16" x14ac:dyDescent="0.2">
       <c r="A40" s="117" t="s">
         <v>206</v>
       </c>
@@ -6463,7 +6475,7 @@
       <c r="AK40" s="3"/>
       <c r="AL40" s="184"/>
     </row>
-    <row r="41" spans="1:40" ht="29" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:40" ht="16" x14ac:dyDescent="0.2">
       <c r="A41" s="117" t="s">
         <v>207</v>
       </c>
@@ -6522,7 +6534,7 @@
       <c r="AK41" s="3"/>
       <c r="AL41" s="184"/>
     </row>
-    <row r="42" spans="1:40" ht="58" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:40" ht="48" x14ac:dyDescent="0.2">
       <c r="A42" s="86" t="s">
         <v>149</v>
       </c>
@@ -6639,7 +6651,7 @@
         <v>1711.6524753198171</v>
       </c>
     </row>
-    <row r="43" spans="1:40" s="171" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:40" s="171" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A43" s="170" t="s">
         <v>216</v>
       </c>
@@ -6696,7 +6708,7 @@
       <c r="AK43" s="175"/>
       <c r="AL43" s="185"/>
     </row>
-    <row r="44" spans="1:40" s="187" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:40" s="187" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A44" s="170" t="s">
         <v>271</v>
       </c>
@@ -6752,7 +6764,7 @@
         <v>1.4999999999999999E-2</v>
       </c>
     </row>
-    <row r="45" spans="1:40" s="35" customFormat="1" ht="14" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="45" spans="1:40" s="35" customFormat="1" ht="14" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A45"/>
       <c r="B45"/>
       <c r="E45"/>
@@ -6789,7 +6801,7 @@
       <c r="AK45" s="44"/>
       <c r="AL45" s="245"/>
     </row>
-    <row r="46" spans="1:40" s="35" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:40" s="35" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A46" s="141" t="s">
         <v>4</v>
       </c>
@@ -6876,7 +6888,7 @@
       <c r="AE46" s="44"/>
       <c r="AL46" s="243"/>
     </row>
-    <row r="47" spans="1:40" s="35" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="47" spans="1:40" s="35" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A47" s="134" t="s">
         <v>201</v>
       </c>
@@ -6939,7 +6951,7 @@
       <c r="AF47" s="44"/>
       <c r="AL47" s="243"/>
     </row>
-    <row r="48" spans="1:40" s="35" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="48" spans="1:40" s="35" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A48" s="227" t="s">
         <v>274</v>
       </c>
@@ -7002,7 +7014,7 @@
       <c r="AF48" s="44"/>
       <c r="AL48" s="243"/>
     </row>
-    <row r="49" spans="1:38" s="35" customFormat="1" ht="27.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="49" spans="1:38" s="35" customFormat="1" ht="27.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A49" s="228" t="s">
         <v>275</v>
       </c>
@@ -7064,7 +7076,7 @@
       <c r="AF49" s="44"/>
       <c r="AL49" s="243"/>
     </row>
-    <row r="50" spans="1:38" s="187" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="50" spans="1:38" s="187" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A50" s="263" t="s">
         <v>285</v>
       </c>
@@ -7109,7 +7121,7 @@
       <c r="AF50" s="189"/>
       <c r="AL50" s="244"/>
     </row>
-    <row r="51" spans="1:38" s="187" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="51" spans="1:38" s="187" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A51" s="263" t="s">
         <v>286</v>
       </c>
@@ -7154,7 +7166,7 @@
       <c r="AF51" s="189"/>
       <c r="AL51" s="244"/>
     </row>
-    <row r="52" spans="1:38" s="187" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="52" spans="1:38" s="187" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A52" s="263" t="s">
         <v>287</v>
       </c>
@@ -7199,7 +7211,7 @@
       <c r="AF52" s="189"/>
       <c r="AL52" s="244"/>
     </row>
-    <row r="53" spans="1:38" s="35" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="53" spans="1:38" s="35" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A53" s="134"/>
       <c r="F53" s="199"/>
       <c r="G53" s="199"/>
@@ -7230,7 +7242,7 @@
       <c r="AF53" s="44"/>
       <c r="AL53" s="243"/>
     </row>
-    <row r="54" spans="1:38" s="35" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="54" spans="1:38" s="35" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A54" s="35" t="s">
         <v>16</v>
       </c>
@@ -7304,7 +7316,7 @@
       <c r="AE54" s="44"/>
       <c r="AL54" s="243"/>
     </row>
-    <row r="55" spans="1:38" s="35" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="55" spans="1:38" s="35" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A55" s="35" t="s">
         <v>229</v>
       </c>
@@ -7361,7 +7373,7 @@
       <c r="AF55" s="44"/>
       <c r="AL55" s="243"/>
     </row>
-    <row r="56" spans="1:38" s="35" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="56" spans="1:38" s="35" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A56" s="136" t="s">
         <v>230</v>
       </c>
@@ -7430,7 +7442,7 @@
       <c r="AF56" s="44"/>
       <c r="AL56" s="243"/>
     </row>
-    <row r="57" spans="1:38" s="138" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="57" spans="1:38" s="138" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A57" s="137" t="s">
         <v>210</v>
       </c>
@@ -7471,7 +7483,7 @@
       <c r="AF57" s="140"/>
       <c r="AL57" s="246"/>
     </row>
-    <row r="58" spans="1:38" s="35" customFormat="1" ht="29" x14ac:dyDescent="0.35">
+    <row r="58" spans="1:38" s="35" customFormat="1" ht="32" x14ac:dyDescent="0.2">
       <c r="A58" s="134" t="s">
         <v>211</v>
       </c>
@@ -7540,7 +7552,7 @@
       <c r="AF58" s="44"/>
       <c r="AL58" s="243"/>
     </row>
-    <row r="59" spans="1:38" s="35" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="59" spans="1:38" s="35" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A59" s="113" t="s">
         <v>198</v>
       </c>
@@ -7597,7 +7609,7 @@
       <c r="AF59" s="44"/>
       <c r="AL59" s="243"/>
     </row>
-    <row r="60" spans="1:38" s="35" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="60" spans="1:38" s="35" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A60" s="113" t="s">
         <v>202</v>
       </c>
@@ -7644,7 +7656,7 @@
       <c r="AF60" s="44"/>
       <c r="AL60" s="243"/>
     </row>
-    <row r="61" spans="1:38" s="35" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="61" spans="1:38" s="35" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A61" s="113" t="s">
         <v>199</v>
       </c>
@@ -7691,7 +7703,7 @@
       <c r="AF61" s="44"/>
       <c r="AL61" s="243"/>
     </row>
-    <row r="62" spans="1:38" s="35" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="62" spans="1:38" s="35" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A62" s="145" t="s">
         <v>218</v>
       </c>
@@ -7765,7 +7777,7 @@
       <c r="AF62" s="44"/>
       <c r="AL62" s="243"/>
     </row>
-    <row r="63" spans="1:38" s="35" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="63" spans="1:38" s="35" customFormat="1" x14ac:dyDescent="0.2">
       <c r="F63" s="199"/>
       <c r="G63" s="199"/>
       <c r="H63" s="199"/>
@@ -7795,7 +7807,7 @@
       <c r="AF63" s="44"/>
       <c r="AL63" s="243"/>
     </row>
-    <row r="64" spans="1:38" s="35" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="64" spans="1:38" s="35" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A64" s="35" t="s">
         <v>17</v>
       </c>
@@ -7856,7 +7868,7 @@
       <c r="AK64" s="44"/>
       <c r="AL64" s="245"/>
     </row>
-    <row r="65" spans="1:38" s="35" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="65" spans="1:38" s="35" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A65" s="114" t="s">
         <v>204</v>
       </c>
@@ -7933,7 +7945,7 @@
       <c r="AK65" s="44"/>
       <c r="AL65" s="245"/>
     </row>
-    <row r="66" spans="1:38" s="187" customFormat="1" ht="12" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:38" s="187" customFormat="1" ht="12" x14ac:dyDescent="0.15">
       <c r="A66" s="170" t="s">
         <v>203</v>
       </c>
@@ -8010,7 +8022,7 @@
       <c r="AK66" s="189"/>
       <c r="AL66" s="247"/>
     </row>
-    <row r="67" spans="1:38" s="35" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="67" spans="1:38" s="35" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A67" s="35" t="s">
         <v>205</v>
       </c>
@@ -8121,7 +8133,7 @@
       <c r="AK67" s="84"/>
       <c r="AL67" s="243"/>
     </row>
-    <row r="68" spans="1:38" s="35" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="68" spans="1:38" s="35" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A68" s="141" t="s">
         <v>161</v>
       </c>
@@ -8197,7 +8209,7 @@
       </c>
       <c r="AL68" s="243"/>
     </row>
-    <row r="69" spans="1:38" s="35" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="69" spans="1:38" s="35" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A69" s="141" t="s">
         <v>215</v>
       </c>
@@ -8255,7 +8267,7 @@
       </c>
       <c r="AL69" s="243"/>
     </row>
-    <row r="70" spans="1:38" s="35" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="70" spans="1:38" s="35" customFormat="1" x14ac:dyDescent="0.2">
       <c r="F70" s="199"/>
       <c r="G70" s="199"/>
       <c r="H70" s="199"/>
@@ -8266,7 +8278,7 @@
       <c r="M70" s="199"/>
       <c r="AL70" s="243"/>
     </row>
-    <row r="71" spans="1:38" s="35" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="71" spans="1:38" s="35" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A71" s="35" t="s">
         <v>15</v>
       </c>
@@ -8340,7 +8352,7 @@
       </c>
       <c r="AL71" s="243"/>
     </row>
-    <row r="72" spans="1:38" s="35" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="72" spans="1:38" s="35" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A72" s="35" t="s">
         <v>231</v>
       </c>
@@ -8414,7 +8426,7 @@
       </c>
       <c r="AL72" s="243"/>
     </row>
-    <row r="73" spans="1:38" s="35" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="73" spans="1:38" s="35" customFormat="1" x14ac:dyDescent="0.2">
       <c r="F73" s="205"/>
       <c r="G73" s="199"/>
       <c r="H73" s="199"/>
@@ -8425,7 +8437,7 @@
       <c r="M73" s="199"/>
       <c r="AL73" s="243"/>
     </row>
-    <row r="74" spans="1:38" s="35" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="74" spans="1:38" s="35" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A74" s="35" t="s">
         <v>228</v>
       </c>
@@ -8525,7 +8537,7 @@
       <c r="AK74" s="84"/>
       <c r="AL74" s="243"/>
     </row>
-    <row r="75" spans="1:38" s="187" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="75" spans="1:38" s="187" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A75" s="170" t="s">
         <v>271</v>
       </c>
@@ -8561,7 +8573,7 @@
       <c r="W75" s="176"/>
       <c r="AL75" s="244"/>
     </row>
-    <row r="76" spans="1:38" s="153" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="76" spans="1:38" s="153" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A76" s="153" t="s">
         <v>223</v>
       </c>
@@ -8599,7 +8611,7 @@
       <c r="AI76" s="155"/>
       <c r="AL76" s="248"/>
     </row>
-    <row r="77" spans="1:38" s="35" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="77" spans="1:38" s="35" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A77" s="35" t="s">
         <v>18</v>
       </c>
@@ -8673,7 +8685,7 @@
       </c>
       <c r="AL77" s="243"/>
     </row>
-    <row r="78" spans="1:38" s="187" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="78" spans="1:38" s="187" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A78" s="170" t="s">
         <v>288</v>
       </c>
@@ -8723,7 +8735,7 @@
       <c r="Y78" s="262"/>
       <c r="AL78" s="244"/>
     </row>
-    <row r="79" spans="1:38" s="187" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="79" spans="1:38" s="187" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A79" s="170" t="s">
         <v>289</v>
       </c>
@@ -8778,7 +8790,7 @@
       </c>
       <c r="AL79" s="244"/>
     </row>
-    <row r="80" spans="1:38" s="35" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="80" spans="1:38" s="35" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A80" s="35" t="s">
         <v>217</v>
       </c>
@@ -8844,7 +8856,7 @@
       </c>
       <c r="AL80" s="243"/>
     </row>
-    <row r="81" spans="1:38" s="35" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="81" spans="1:38" s="35" customFormat="1" x14ac:dyDescent="0.2">
       <c r="F81" s="199"/>
       <c r="G81" s="199"/>
       <c r="H81" s="199"/>
@@ -8894,7 +8906,7 @@
       <c r="Y81"/>
       <c r="AL81" s="243"/>
     </row>
-    <row r="82" spans="1:38" s="187" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="82" spans="1:38" s="187" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A82" s="170" t="s">
         <v>288</v>
       </c>
@@ -8932,7 +8944,7 @@
       <c r="Y82" s="262"/>
       <c r="AL82" s="244"/>
     </row>
-    <row r="83" spans="1:38" s="187" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="83" spans="1:38" s="187" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A83" s="170" t="s">
         <v>289</v>
       </c>
@@ -8976,7 +8988,7 @@
       </c>
       <c r="AL83" s="244"/>
     </row>
-    <row r="84" spans="1:38" s="187" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="84" spans="1:38" s="187" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A84" s="266" t="s">
         <v>263</v>
       </c>
@@ -8999,7 +9011,7 @@
       <c r="V84" s="176"/>
       <c r="AL84" s="244"/>
     </row>
-    <row r="85" spans="1:38" s="35" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="85" spans="1:38" s="35" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A85" s="35" t="s">
         <v>164</v>
       </c>
@@ -9085,7 +9097,7 @@
       </c>
       <c r="AL85" s="243"/>
     </row>
-    <row r="86" spans="1:38" s="35" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="86" spans="1:38" s="35" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A86" s="141" t="s">
         <v>214</v>
       </c>
@@ -9155,7 +9167,7 @@
       </c>
       <c r="AL86" s="243"/>
     </row>
-    <row r="87" spans="1:38" s="141" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="87" spans="1:38" s="141" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A87" s="141" t="s">
         <v>232</v>
       </c>
@@ -9243,7 +9255,7 @@
       </c>
       <c r="AL87" s="268"/>
     </row>
-    <row r="88" spans="1:38" s="35" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="88" spans="1:38" s="35" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A88"/>
       <c r="F88" s="220"/>
       <c r="G88" s="220"/>
@@ -9264,7 +9276,7 @@
       <c r="V88"/>
       <c r="AL88" s="243"/>
     </row>
-    <row r="89" spans="1:38" s="187" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="89" spans="1:38" s="187" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A89" s="170"/>
       <c r="F89" s="195"/>
       <c r="G89" s="195"/>
@@ -9284,7 +9296,7 @@
       <c r="U89" s="195"/>
       <c r="AL89" s="244"/>
     </row>
-    <row r="90" spans="1:38" x14ac:dyDescent="0.35">
+    <row r="90" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A90" t="s">
         <v>158</v>
       </c>
@@ -9311,7 +9323,7 @@
       <c r="AG90" s="35"/>
       <c r="AH90" s="35"/>
     </row>
-    <row r="91" spans="1:38" x14ac:dyDescent="0.35">
+    <row r="91" spans="1:38" x14ac:dyDescent="0.2">
       <c r="L91" s="35"/>
       <c r="M91" s="35"/>
       <c r="N91" s="35"/>
@@ -9335,7 +9347,7 @@
       <c r="AG91" s="35"/>
       <c r="AH91" s="35"/>
     </row>
-    <row r="92" spans="1:38" x14ac:dyDescent="0.35">
+    <row r="92" spans="1:38" x14ac:dyDescent="0.2">
       <c r="L92" s="35"/>
       <c r="M92" s="35"/>
       <c r="N92" s="35"/>
@@ -9359,7 +9371,7 @@
       <c r="AG92" s="35"/>
       <c r="AH92" s="35"/>
     </row>
-    <row r="93" spans="1:38" x14ac:dyDescent="0.35">
+    <row r="93" spans="1:38" x14ac:dyDescent="0.2">
       <c r="L93" s="35"/>
       <c r="M93" s="35"/>
       <c r="N93" s="35"/>
@@ -9383,7 +9395,7 @@
       <c r="AG93" s="35"/>
       <c r="AH93" s="35"/>
     </row>
-    <row r="94" spans="1:38" x14ac:dyDescent="0.35">
+    <row r="94" spans="1:38" x14ac:dyDescent="0.2">
       <c r="L94" s="35"/>
       <c r="M94" s="35"/>
       <c r="N94" s="35"/>
@@ -9407,7 +9419,7 @@
       <c r="AG94" s="35"/>
       <c r="AH94" s="35"/>
     </row>
-    <row r="95" spans="1:38" x14ac:dyDescent="0.35">
+    <row r="95" spans="1:38" x14ac:dyDescent="0.2">
       <c r="L95" s="35"/>
       <c r="M95" s="35"/>
       <c r="N95" s="35"/>
@@ -9463,9 +9475,9 @@
       <selection activeCell="H13" sqref="H13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:19" s="6" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:19" s="6" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A1" s="4" t="s">
         <v>30</v>
       </c>
@@ -9474,7 +9486,7 @@
       <c r="D1" s="5"/>
       <c r="E1" s="5"/>
     </row>
-    <row r="2" spans="1:19" s="6" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:19" s="6" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="7" t="s">
         <v>31</v>
       </c>
@@ -9483,9 +9495,9 @@
       <c r="D2" s="8"/>
       <c r="E2" s="8"/>
     </row>
-    <row r="3" spans="1:19" s="6" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="4" spans="1:19" s="6" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="5" spans="1:19" s="6" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:19" s="6" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="4" spans="1:19" s="6" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="5" spans="1:19" s="6" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A5" s="300" t="s">
         <v>32</v>
       </c>
@@ -9508,7 +9520,7 @@
       <c r="R5" s="301"/>
       <c r="S5" s="301"/>
     </row>
-    <row r="6" spans="1:19" s="6" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:19" s="6" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A6" s="302" t="s">
         <v>33</v>
       </c>
@@ -9531,7 +9543,7 @@
       <c r="R6" s="302"/>
       <c r="S6" s="302"/>
     </row>
-    <row r="7" spans="1:19" s="6" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:19" s="6" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A7" s="9"/>
       <c r="B7" s="9"/>
       <c r="C7" s="9"/>
@@ -9552,7 +9564,7 @@
       <c r="R7" s="9"/>
       <c r="S7" s="9"/>
     </row>
-    <row r="8" spans="1:19" s="6" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:19" s="6" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A8" s="130"/>
       <c r="B8" s="130"/>
       <c r="C8" s="11"/>
@@ -9573,7 +9585,7 @@
       <c r="R8" s="303"/>
       <c r="S8" s="304"/>
     </row>
-    <row r="9" spans="1:19" s="6" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:19" s="6" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A9" s="130"/>
       <c r="B9" s="130"/>
       <c r="C9" s="14"/>
@@ -9596,7 +9608,7 @@
       <c r="R9" s="18"/>
       <c r="S9" s="18"/>
     </row>
-    <row r="10" spans="1:19" s="6" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:19" s="6" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A10" s="19"/>
       <c r="B10" s="19"/>
       <c r="C10" s="20"/>
@@ -9631,7 +9643,7 @@
       <c r="R10" s="22"/>
       <c r="S10" s="22"/>
     </row>
-    <row r="11" spans="1:19" s="6" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:19" s="6" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A11" s="130"/>
       <c r="B11" s="28" t="s">
         <v>2</v>
@@ -9668,7 +9680,7 @@
       <c r="R11" s="25"/>
       <c r="S11" s="25"/>
     </row>
-    <row r="12" spans="1:19" s="6" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:19" s="6" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A12" s="130"/>
       <c r="B12" s="28"/>
       <c r="C12" s="28"/>
@@ -9707,7 +9719,7 @@
       <c r="R12" s="25"/>
       <c r="S12" s="25"/>
     </row>
-    <row r="13" spans="1:19" s="6" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:19" s="6" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A13" s="130" t="s">
         <v>220</v>
       </c>
@@ -9753,7 +9765,7 @@
       <c r="R13" s="25"/>
       <c r="S13" s="25"/>
     </row>
-    <row r="14" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:19" x14ac:dyDescent="0.2">
       <c r="F14" s="25"/>
       <c r="G14" s="25"/>
       <c r="H14" s="25"/>
@@ -9766,7 +9778,7 @@
         <v>225</v>
       </c>
     </row>
-    <row r="15" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>224</v>
       </c>
@@ -9799,7 +9811,7 @@
         <v>0.67846773573296415</v>
       </c>
     </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
         <v>222</v>
       </c>
@@ -9826,16 +9838,16 @@
       <selection pane="bottomLeft" activeCell="C80" sqref="C80"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="2" max="2" width="23.6328125" customWidth="1"/>
-    <col min="4" max="6" width="9.36328125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="9.1796875" style="118" customWidth="1"/>
-    <col min="8" max="10" width="9.36328125" style="95" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="9.36328125" style="118" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="23.6640625" customWidth="1"/>
+    <col min="4" max="6" width="9.33203125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="9.1640625" style="118" customWidth="1"/>
+    <col min="8" max="10" width="9.33203125" style="95" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="9.33203125" style="118" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:32" ht="18.5" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:32" ht="19" x14ac:dyDescent="0.25">
       <c r="A1" s="287" t="s">
         <v>208</v>
       </c>
@@ -9857,7 +9869,7 @@
       <c r="AE1" s="286"/>
       <c r="AF1" s="286"/>
     </row>
-    <row r="2" spans="1:32" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A2" s="306" t="s">
         <v>192</v>
       </c>
@@ -9866,28 +9878,28 @@
         <v>193</v>
       </c>
     </row>
-    <row r="3" spans="1:32" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A3" s="306"/>
       <c r="B3" s="108"/>
       <c r="C3" t="s">
         <v>194</v>
       </c>
     </row>
-    <row r="4" spans="1:32" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A4" s="306"/>
       <c r="B4" s="109"/>
       <c r="C4" t="s">
         <v>195</v>
       </c>
     </row>
-    <row r="5" spans="1:32" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A5" s="306"/>
       <c r="B5" s="98"/>
       <c r="C5" t="s">
         <v>182</v>
       </c>
     </row>
-    <row r="7" spans="1:32" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:32" x14ac:dyDescent="0.2">
       <c r="C7" s="296" t="s">
         <v>160</v>
       </c>
@@ -9907,7 +9919,7 @@
       <c r="M7" s="297"/>
       <c r="N7" s="298"/>
     </row>
-    <row r="8" spans="1:32" s="2" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:32" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B8" s="2" t="s">
         <v>200</v>
       </c>
@@ -9942,7 +9954,7 @@
       <c r="M8" s="96"/>
       <c r="N8" s="96"/>
     </row>
-    <row r="9" spans="1:32" s="2" customFormat="1" ht="18.5" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:32" s="2" customFormat="1" ht="19" x14ac:dyDescent="0.25">
       <c r="A9" s="106" t="s">
         <v>165</v>
       </c>
@@ -9960,7 +9972,7 @@
       <c r="M9" s="78"/>
       <c r="N9" s="78"/>
     </row>
-    <row r="10" spans="1:32" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:32" ht="16" x14ac:dyDescent="0.2">
       <c r="B10" s="86" t="s">
         <v>171</v>
       </c>
@@ -9989,7 +10001,7 @@
         <v>71.905190915813407</v>
       </c>
     </row>
-    <row r="11" spans="1:32" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:32" ht="16" x14ac:dyDescent="0.2">
       <c r="B11" s="86" t="s">
         <v>172</v>
       </c>
@@ -10018,7 +10030,7 @@
         <v>397.47458006632002</v>
       </c>
     </row>
-    <row r="12" spans="1:32" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:32" ht="16" x14ac:dyDescent="0.2">
       <c r="B12" s="86" t="s">
         <v>173</v>
       </c>
@@ -10047,7 +10059,7 @@
         <v>2052.5745731536199</v>
       </c>
     </row>
-    <row r="13" spans="1:32" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:32" ht="16" x14ac:dyDescent="0.2">
       <c r="B13" s="86" t="s">
         <v>174</v>
       </c>
@@ -10076,7 +10088,7 @@
         <v>61.480044477236603</v>
       </c>
     </row>
-    <row r="14" spans="1:32" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:32" ht="16" x14ac:dyDescent="0.2">
       <c r="B14" s="86" t="s">
         <v>175</v>
       </c>
@@ -10105,7 +10117,7 @@
         <v>0.61311927847613501</v>
       </c>
     </row>
-    <row r="15" spans="1:32" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:32" ht="16" x14ac:dyDescent="0.2">
       <c r="B15" s="86" t="s">
         <v>176</v>
       </c>
@@ -10134,7 +10146,7 @@
         <v>1536.3491403461601</v>
       </c>
     </row>
-    <row r="16" spans="1:32" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:32" ht="16" x14ac:dyDescent="0.2">
       <c r="B16" s="86" t="s">
         <v>167</v>
       </c>
@@ -10163,7 +10175,7 @@
         <v>2744.7441275841602</v>
       </c>
     </row>
-    <row r="17" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:12" ht="16" x14ac:dyDescent="0.2">
       <c r="B17" s="86" t="s">
         <v>168</v>
       </c>
@@ -10192,7 +10204,7 @@
         <v>3246.3114308992499</v>
       </c>
     </row>
-    <row r="18" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:12" ht="16" x14ac:dyDescent="0.2">
       <c r="B18" s="86" t="s">
         <v>169</v>
       </c>
@@ -10221,7 +10233,7 @@
         <v>252.77338989879101</v>
       </c>
     </row>
-    <row r="19" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:12" ht="16" x14ac:dyDescent="0.2">
       <c r="B19" s="86" t="s">
         <v>170</v>
       </c>
@@ -10250,7 +10262,7 @@
         <v>1109.9502671346299</v>
       </c>
     </row>
-    <row r="20" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:12" x14ac:dyDescent="0.2">
       <c r="B20" t="s">
         <v>196</v>
       </c>
@@ -10279,13 +10291,13 @@
         <v>748.69791667930303</v>
       </c>
     </row>
-    <row r="23" spans="1:12" ht="18.5" x14ac:dyDescent="0.45">
+    <row r="23" spans="1:12" ht="19" x14ac:dyDescent="0.25">
       <c r="A23" s="110" t="s">
         <v>185</v>
       </c>
       <c r="B23" s="110"/>
     </row>
-    <row r="24" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:12" x14ac:dyDescent="0.2">
       <c r="B24" t="s">
         <v>186</v>
       </c>
@@ -10323,7 +10335,7 @@
       </c>
       <c r="L24" s="100"/>
     </row>
-    <row r="25" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:12" x14ac:dyDescent="0.2">
       <c r="B25" t="s">
         <v>187</v>
       </c>
@@ -10350,7 +10362,7 @@
         <v>-46.377972457627124</v>
       </c>
     </row>
-    <row r="26" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:12" x14ac:dyDescent="0.2">
       <c r="B26" t="s">
         <v>180</v>
       </c>
@@ -10386,7 +10398,7 @@
         <v>193.49039972658653</v>
       </c>
     </row>
-    <row r="27" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:12" x14ac:dyDescent="0.2">
       <c r="B27" t="s">
         <v>178</v>
       </c>
@@ -10423,7 +10435,7 @@
         <v>71.905190915813407</v>
       </c>
     </row>
-    <row r="28" spans="1:12" s="97" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:12" s="97" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B28" s="99" t="s">
         <v>179</v>
       </c>
@@ -10454,7 +10466,7 @@
         <v>121.58520881077312</v>
       </c>
     </row>
-    <row r="29" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:12" x14ac:dyDescent="0.2">
       <c r="D29" s="102"/>
       <c r="E29" s="102"/>
       <c r="F29" s="102"/>
@@ -10464,7 +10476,7 @@
       <c r="J29" s="104"/>
       <c r="K29" s="122"/>
     </row>
-    <row r="30" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:12" x14ac:dyDescent="0.2">
       <c r="D30" s="102"/>
       <c r="E30" s="102"/>
       <c r="F30" s="102"/>
@@ -10474,13 +10486,13 @@
       <c r="J30" s="104"/>
       <c r="K30" s="122"/>
     </row>
-    <row r="31" spans="1:12" ht="18.5" x14ac:dyDescent="0.45">
+    <row r="31" spans="1:12" ht="19" x14ac:dyDescent="0.25">
       <c r="A31" s="110" t="s">
         <v>188</v>
       </c>
       <c r="B31" s="110"/>
     </row>
-    <row r="32" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:12" x14ac:dyDescent="0.2">
       <c r="B32" t="s">
         <v>186</v>
       </c>
@@ -10518,7 +10530,7 @@
       </c>
       <c r="L32" s="100"/>
     </row>
-    <row r="33" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:11" x14ac:dyDescent="0.2">
       <c r="B33" t="s">
         <v>187</v>
       </c>
@@ -10549,7 +10561,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="34" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:11" x14ac:dyDescent="0.2">
       <c r="B34" t="s">
         <v>180</v>
       </c>
@@ -10585,7 +10597,7 @@
         <v>191.84423247697106</v>
       </c>
     </row>
-    <row r="35" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:11" x14ac:dyDescent="0.2">
       <c r="B35" t="s">
         <v>178</v>
       </c>
@@ -10622,7 +10634,7 @@
         <v>397.47458006632002</v>
       </c>
     </row>
-    <row r="36" spans="1:11" s="97" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:11" s="97" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B36" s="99" t="s">
         <v>179</v>
       </c>
@@ -10653,7 +10665,7 @@
         <v>-205.63034758934896</v>
       </c>
     </row>
-    <row r="37" spans="1:11" s="97" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:11" s="97" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B37" s="99"/>
       <c r="D37" s="103"/>
       <c r="E37" s="103"/>
@@ -10664,7 +10676,7 @@
       <c r="J37" s="103"/>
       <c r="K37" s="123"/>
     </row>
-    <row r="38" spans="1:11" s="97" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:11" s="97" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B38" s="99"/>
       <c r="D38" s="103"/>
       <c r="E38" s="103"/>
@@ -10675,7 +10687,7 @@
       <c r="J38" s="103"/>
       <c r="K38" s="123"/>
     </row>
-    <row r="39" spans="1:11" ht="18.5" x14ac:dyDescent="0.45">
+    <row r="39" spans="1:11" ht="19" x14ac:dyDescent="0.25">
       <c r="A39" s="110" t="s">
         <v>184</v>
       </c>
@@ -10689,7 +10701,7 @@
       <c r="J39" s="104"/>
       <c r="K39" s="122"/>
     </row>
-    <row r="40" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:11" x14ac:dyDescent="0.2">
       <c r="B40" t="s">
         <v>180</v>
       </c>
@@ -10718,7 +10730,7 @@
         <v>1892.015583446143</v>
       </c>
     </row>
-    <row r="41" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:11" x14ac:dyDescent="0.2">
       <c r="B41" t="s">
         <v>181</v>
       </c>
@@ -10753,7 +10765,7 @@
         <v>1890.9916822863934</v>
       </c>
     </row>
-    <row r="42" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:11" x14ac:dyDescent="0.2">
       <c r="B42" t="s">
         <v>178</v>
       </c>
@@ -10790,7 +10802,7 @@
         <v>2052.5745731536199</v>
       </c>
     </row>
-    <row r="43" spans="1:11" s="97" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:11" s="97" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B43" s="99" t="s">
         <v>179</v>
       </c>
@@ -10821,7 +10833,7 @@
         <v>-161.58289086722652</v>
       </c>
     </row>
-    <row r="44" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:11" x14ac:dyDescent="0.2">
       <c r="D44" s="102"/>
       <c r="E44" s="102"/>
       <c r="F44" s="102"/>
@@ -10831,7 +10843,7 @@
       <c r="J44" s="104"/>
       <c r="K44" s="122"/>
     </row>
-    <row r="45" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="45" spans="1:11" x14ac:dyDescent="0.2">
       <c r="D45" s="102"/>
       <c r="E45" s="102"/>
       <c r="F45" s="102"/>
@@ -10841,7 +10853,7 @@
       <c r="J45" s="104"/>
       <c r="K45" s="122"/>
     </row>
-    <row r="46" spans="1:11" ht="18.5" x14ac:dyDescent="0.45">
+    <row r="46" spans="1:11" ht="19" x14ac:dyDescent="0.25">
       <c r="A46" s="110" t="s">
         <v>183</v>
       </c>
@@ -10855,7 +10867,7 @@
       <c r="J46" s="104"/>
       <c r="K46" s="122"/>
     </row>
-    <row r="47" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="47" spans="1:11" x14ac:dyDescent="0.2">
       <c r="B47" t="s">
         <v>180</v>
       </c>
@@ -10884,7 +10896,7 @@
         <v>74.827748020610457</v>
       </c>
     </row>
-    <row r="48" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="48" spans="1:11" x14ac:dyDescent="0.2">
       <c r="B48" t="s">
         <v>181</v>
       </c>
@@ -10919,7 +10931,7 @@
         <v>97.788296196225005</v>
       </c>
     </row>
-    <row r="49" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="49" spans="1:12" x14ac:dyDescent="0.2">
       <c r="B49" t="s">
         <v>178</v>
       </c>
@@ -10956,7 +10968,7 @@
         <v>61.480044477236603</v>
       </c>
     </row>
-    <row r="50" spans="1:12" s="97" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="50" spans="1:12" s="97" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B50" s="99" t="s">
         <v>179</v>
       </c>
@@ -10987,7 +10999,7 @@
         <v>36.308251718988402</v>
       </c>
     </row>
-    <row r="51" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="51" spans="1:12" x14ac:dyDescent="0.2">
       <c r="D51" s="102"/>
       <c r="E51" s="102"/>
       <c r="F51" s="102"/>
@@ -10997,13 +11009,13 @@
       <c r="J51" s="104"/>
       <c r="K51" s="122"/>
     </row>
-    <row r="53" spans="1:12" ht="18.5" x14ac:dyDescent="0.45">
+    <row r="53" spans="1:12" ht="19" x14ac:dyDescent="0.25">
       <c r="A53" s="105" t="s">
         <v>189</v>
       </c>
       <c r="B53" s="105"/>
     </row>
-    <row r="54" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="54" spans="1:12" x14ac:dyDescent="0.2">
       <c r="B54" t="s">
         <v>186</v>
       </c>
@@ -11041,7 +11053,7 @@
       </c>
       <c r="L54" s="100"/>
     </row>
-    <row r="55" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="55" spans="1:12" x14ac:dyDescent="0.2">
       <c r="B55" t="s">
         <v>187</v>
       </c>
@@ -11068,7 +11080,7 @@
         <v>77.568110169491518</v>
       </c>
     </row>
-    <row r="56" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="56" spans="1:12" x14ac:dyDescent="0.2">
       <c r="B56" t="s">
         <v>180</v>
       </c>
@@ -11105,7 +11117,7 @@
         <v>1466.8336294397507</v>
       </c>
     </row>
-    <row r="57" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="57" spans="1:12" x14ac:dyDescent="0.2">
       <c r="B57" t="s">
         <v>178</v>
       </c>
@@ -11142,7 +11154,7 @@
         <v>1536.3491403461601</v>
       </c>
     </row>
-    <row r="58" spans="1:12" s="97" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="58" spans="1:12" s="97" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B58" s="99" t="s">
         <v>179</v>
       </c>
@@ -11173,7 +11185,7 @@
         <v>-69.515510906409418</v>
       </c>
     </row>
-    <row r="59" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="59" spans="1:12" x14ac:dyDescent="0.2">
       <c r="D59" s="102"/>
       <c r="E59" s="102"/>
       <c r="F59" s="102"/>
@@ -11183,7 +11195,7 @@
       <c r="J59" s="104"/>
       <c r="K59" s="122"/>
     </row>
-    <row r="60" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="60" spans="1:12" x14ac:dyDescent="0.2">
       <c r="D60" s="102"/>
       <c r="E60" s="102"/>
       <c r="F60" s="102"/>
@@ -11193,13 +11205,13 @@
       <c r="J60" s="104"/>
       <c r="K60" s="122"/>
     </row>
-    <row r="61" spans="1:12" ht="18.5" x14ac:dyDescent="0.45">
+    <row r="61" spans="1:12" ht="19" x14ac:dyDescent="0.25">
       <c r="A61" s="105" t="s">
         <v>190</v>
       </c>
       <c r="B61" s="105"/>
     </row>
-    <row r="62" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="62" spans="1:12" x14ac:dyDescent="0.2">
       <c r="B62" t="s">
         <v>186</v>
       </c>
@@ -11237,7 +11249,7 @@
       </c>
       <c r="L62" s="100"/>
     </row>
-    <row r="63" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="63" spans="1:12" x14ac:dyDescent="0.2">
       <c r="B63" t="s">
         <v>187</v>
       </c>
@@ -11264,7 +11276,7 @@
         <v>85.98974092242338</v>
       </c>
     </row>
-    <row r="64" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="64" spans="1:12" x14ac:dyDescent="0.2">
       <c r="B64" t="s">
         <v>180</v>
       </c>
@@ -11300,7 +11312,7 @@
         <v>2007.57447036953</v>
       </c>
     </row>
-    <row r="65" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="65" spans="1:11" x14ac:dyDescent="0.2">
       <c r="B65" t="s">
         <v>178</v>
       </c>
@@ -11337,7 +11349,7 @@
         <v>2744.7441275841602</v>
       </c>
     </row>
-    <row r="66" spans="1:11" s="97" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="66" spans="1:11" s="97" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B66" s="99" t="s">
         <v>179</v>
       </c>
@@ -11368,7 +11380,7 @@
         <v>-737.16965721463021</v>
       </c>
     </row>
-    <row r="67" spans="1:11" s="97" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="67" spans="1:11" s="97" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B67" s="99"/>
       <c r="D67" s="103"/>
       <c r="E67" s="103"/>
@@ -11379,7 +11391,7 @@
       <c r="J67" s="103"/>
       <c r="K67" s="123"/>
     </row>
-    <row r="68" spans="1:11" s="97" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="68" spans="1:11" s="97" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B68" s="99"/>
       <c r="D68" s="103"/>
       <c r="E68" s="103"/>
@@ -11390,7 +11402,7 @@
       <c r="J68" s="103"/>
       <c r="K68" s="123"/>
     </row>
-    <row r="69" spans="1:11" ht="18.5" x14ac:dyDescent="0.45">
+    <row r="69" spans="1:11" ht="19" x14ac:dyDescent="0.25">
       <c r="A69" s="105" t="s">
         <v>191</v>
       </c>
@@ -11404,7 +11416,7 @@
       <c r="J69" s="104"/>
       <c r="K69" s="122"/>
     </row>
-    <row r="70" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="70" spans="1:11" x14ac:dyDescent="0.2">
       <c r="B70" t="s">
         <v>4</v>
       </c>
@@ -11438,7 +11450,7 @@
         <v>100.25024999999999</v>
       </c>
     </row>
-    <row r="71" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="71" spans="1:11" x14ac:dyDescent="0.2">
       <c r="B71" t="s">
         <v>178</v>
       </c>
@@ -11475,7 +11487,7 @@
         <v>1109.9502671346299</v>
       </c>
     </row>
-    <row r="72" spans="1:11" s="97" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="72" spans="1:11" s="97" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B72" s="99" t="s">
         <v>179</v>
       </c>
@@ -11506,7 +11518,7 @@
         <v>-1009.7000171346299</v>
       </c>
     </row>
-    <row r="73" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="73" spans="1:11" x14ac:dyDescent="0.2">
       <c r="D73" s="102"/>
       <c r="E73" s="102"/>
       <c r="F73" s="102"/>
@@ -11516,7 +11528,7 @@
       <c r="J73" s="104"/>
       <c r="K73" s="122"/>
     </row>
-    <row r="74" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="74" spans="1:11" x14ac:dyDescent="0.2">
       <c r="D74" s="102"/>
       <c r="E74" s="102"/>
       <c r="F74" s="102"/>
@@ -11526,7 +11538,7 @@
       <c r="J74" s="104"/>
       <c r="K74" s="122"/>
     </row>
-    <row r="75" spans="1:11" ht="18.5" x14ac:dyDescent="0.45">
+    <row r="75" spans="1:11" ht="19" x14ac:dyDescent="0.25">
       <c r="A75" s="105" t="s">
         <v>197</v>
       </c>
@@ -11540,7 +11552,7 @@
       <c r="J75" s="104"/>
       <c r="K75" s="122"/>
     </row>
-    <row r="76" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="76" spans="1:11" x14ac:dyDescent="0.2">
       <c r="B76" t="s">
         <v>186</v>
       </c>
@@ -11577,7 +11589,7 @@
         <v>3301.0791480964817</v>
       </c>
     </row>
-    <row r="77" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="77" spans="1:11" x14ac:dyDescent="0.2">
       <c r="B77" t="s">
         <v>187</v>
       </c>
@@ -11606,7 +11618,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="78" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="78" spans="1:11" x14ac:dyDescent="0.2">
       <c r="B78" s="111" t="s">
         <v>198</v>
       </c>
@@ -11625,7 +11637,7 @@
       <c r="J78" s="102"/>
       <c r="K78" s="122"/>
     </row>
-    <row r="79" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="79" spans="1:11" x14ac:dyDescent="0.2">
       <c r="B79" s="112" t="s">
         <v>199</v>
       </c>
@@ -11644,7 +11656,7 @@
       <c r="J79" s="102"/>
       <c r="K79" s="122"/>
     </row>
-    <row r="80" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="80" spans="1:11" x14ac:dyDescent="0.2">
       <c r="B80" t="s">
         <v>180</v>
       </c>
@@ -11681,7 +11693,7 @@
         <v>3421.0791480964817</v>
       </c>
     </row>
-    <row r="81" spans="2:11" x14ac:dyDescent="0.35">
+    <row r="81" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B81" t="s">
         <v>178</v>
       </c>
@@ -11718,7 +11730,7 @@
         <v>748.69791667930303</v>
       </c>
     </row>
-    <row r="82" spans="2:11" s="97" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="82" spans="2:11" s="97" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B82" s="99" t="s">
         <v>179</v>
       </c>
@@ -11769,105 +11781,105 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{78DF29D8-3B4C-4287-8349-C362C52DEB32}">
   <dimension ref="A1:X40"/>
   <sheetViews>
-    <sheetView topLeftCell="H15" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <selection activeCell="N38" sqref="N38"/>
+    <sheetView topLeftCell="B14" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
+      <selection activeCell="M38" sqref="M38"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="6.453125" customWidth="1"/>
-    <col min="2" max="2" width="62.453125" customWidth="1"/>
-    <col min="3" max="3" width="15.81640625" customWidth="1"/>
-    <col min="4" max="11" width="12.453125" customWidth="1"/>
+    <col min="1" max="1" width="6.5" customWidth="1"/>
+    <col min="2" max="2" width="62.5" customWidth="1"/>
+    <col min="3" max="3" width="15.83203125" customWidth="1"/>
+    <col min="4" max="11" width="12.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:24" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:24" x14ac:dyDescent="0.2">
       <c r="L1" s="46"/>
       <c r="M1" s="46"/>
     </row>
-    <row r="2" spans="1:24" x14ac:dyDescent="0.35">
-      <c r="A2" s="312" t="s">
+    <row r="2" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="A2" s="307" t="s">
         <v>104</v>
       </c>
-      <c r="B2" s="312"/>
-      <c r="C2" s="312"/>
-      <c r="D2" s="312"/>
-      <c r="E2" s="312"/>
-      <c r="F2" s="312"/>
-      <c r="G2" s="312"/>
-      <c r="H2" s="312"/>
-      <c r="I2" s="312"/>
-      <c r="J2" s="312"/>
+      <c r="B2" s="307"/>
+      <c r="C2" s="307"/>
+      <c r="D2" s="307"/>
+      <c r="E2" s="307"/>
+      <c r="F2" s="307"/>
+      <c r="G2" s="307"/>
+      <c r="H2" s="307"/>
+      <c r="I2" s="307"/>
+      <c r="J2" s="307"/>
       <c r="K2" s="77"/>
     </row>
-    <row r="3" spans="1:24" x14ac:dyDescent="0.35">
-      <c r="A3" s="312" t="s">
+    <row r="3" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="A3" s="307" t="s">
         <v>105</v>
       </c>
-      <c r="B3" s="312"/>
-      <c r="C3" s="312"/>
-      <c r="D3" s="312"/>
-      <c r="E3" s="312"/>
-      <c r="F3" s="312"/>
-      <c r="G3" s="312"/>
-      <c r="H3" s="312"/>
-      <c r="I3" s="312"/>
-      <c r="J3" s="312"/>
+      <c r="B3" s="307"/>
+      <c r="C3" s="307"/>
+      <c r="D3" s="307"/>
+      <c r="E3" s="307"/>
+      <c r="F3" s="307"/>
+      <c r="G3" s="307"/>
+      <c r="H3" s="307"/>
+      <c r="I3" s="307"/>
+      <c r="J3" s="307"/>
       <c r="K3" s="77"/>
     </row>
-    <row r="4" spans="1:24" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A4" s="313"/>
-      <c r="B4" s="313"/>
-      <c r="C4" s="313"/>
-      <c r="D4" s="313"/>
-      <c r="E4" s="313"/>
-      <c r="F4" s="313"/>
-      <c r="G4" s="313"/>
-      <c r="H4" s="313"/>
-      <c r="I4" s="313"/>
-      <c r="J4" s="313"/>
-      <c r="K4" s="318" t="s">
+    <row r="4" spans="1:24" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="308"/>
+      <c r="B4" s="308"/>
+      <c r="C4" s="308"/>
+      <c r="D4" s="308"/>
+      <c r="E4" s="308"/>
+      <c r="F4" s="308"/>
+      <c r="G4" s="308"/>
+      <c r="H4" s="308"/>
+      <c r="I4" s="308"/>
+      <c r="J4" s="308"/>
+      <c r="K4" s="313" t="s">
         <v>160</v>
       </c>
-      <c r="L4" s="318"/>
-      <c r="M4" s="318"/>
-      <c r="N4" s="318"/>
-    </row>
-    <row r="5" spans="1:24" x14ac:dyDescent="0.35">
+      <c r="L4" s="313"/>
+      <c r="M4" s="313"/>
+      <c r="N4" s="313"/>
+    </row>
+    <row r="5" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A5" s="47"/>
       <c r="B5" s="48"/>
-      <c r="C5" s="314" t="s">
+      <c r="C5" s="309" t="s">
         <v>106</v>
       </c>
-      <c r="D5" s="315"/>
-      <c r="E5" s="315"/>
-      <c r="F5" s="315"/>
-      <c r="G5" s="315"/>
-      <c r="H5" s="315"/>
-      <c r="I5" s="315"/>
-      <c r="J5" s="316"/>
+      <c r="D5" s="310"/>
+      <c r="E5" s="310"/>
+      <c r="F5" s="310"/>
+      <c r="G5" s="310"/>
+      <c r="H5" s="310"/>
+      <c r="I5" s="310"/>
+      <c r="J5" s="311"/>
       <c r="K5" s="78"/>
-      <c r="L5" s="317" t="s">
+      <c r="L5" s="312" t="s">
         <v>107</v>
       </c>
       <c r="M5" s="286"/>
       <c r="N5" s="286"/>
     </row>
-    <row r="6" spans="1:24" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="s">
         <v>109</v>
       </c>
       <c r="B6" s="49"/>
-      <c r="C6" s="308">
+      <c r="C6" s="315">
         <v>2020</v>
       </c>
-      <c r="D6" s="309"/>
-      <c r="E6" s="309"/>
-      <c r="F6" s="309"/>
-      <c r="G6" s="309"/>
-      <c r="H6" s="309"/>
-      <c r="I6" s="309"/>
-      <c r="J6" s="310"/>
+      <c r="D6" s="316"/>
+      <c r="E6" s="316"/>
+      <c r="F6" s="316"/>
+      <c r="G6" s="316"/>
+      <c r="H6" s="316"/>
+      <c r="I6" s="316"/>
+      <c r="J6" s="317"/>
       <c r="K6" s="78" t="s">
         <v>135</v>
       </c>
@@ -11896,7 +11908,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="7" spans="1:24" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A7" s="50"/>
       <c r="B7" s="51"/>
       <c r="C7" s="52" t="s">
@@ -11923,7 +11935,7 @@
       </c>
       <c r="K7" s="78"/>
     </row>
-    <row r="8" spans="1:24" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A8" s="57">
         <v>23</v>
       </c>
@@ -11967,7 +11979,7 @@
         <v>772</v>
       </c>
     </row>
-    <row r="9" spans="1:24" ht="16.5" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:24" ht="17" x14ac:dyDescent="0.2">
       <c r="B9" s="74" t="s">
         <v>131</v>
       </c>
@@ -11985,7 +11997,7 @@
       <c r="N9" s="73"/>
       <c r="X9" s="72"/>
     </row>
-    <row r="10" spans="1:24" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A10">
         <v>24</v>
       </c>
@@ -12025,7 +12037,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="11" spans="1:24" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A11" s="57">
         <v>25</v>
       </c>
@@ -12077,7 +12089,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:24" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A12">
         <v>26</v>
       </c>
@@ -12117,7 +12129,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="13" spans="1:24" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:24" x14ac:dyDescent="0.2">
       <c r="K13" s="35" t="s">
         <v>140</v>
       </c>
@@ -12134,12 +12146,12 @@
         <v>8</v>
       </c>
     </row>
-    <row r="15" spans="1:24" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:24" x14ac:dyDescent="0.2">
       <c r="K15" t="s">
         <v>137</v>
       </c>
     </row>
-    <row r="17" spans="3:23" x14ac:dyDescent="0.35">
+    <row r="17" spans="3:23" x14ac:dyDescent="0.2">
       <c r="D17" t="s">
         <v>120</v>
       </c>
@@ -12199,7 +12211,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="3:23" x14ac:dyDescent="0.35">
+    <row r="18" spans="3:23" x14ac:dyDescent="0.2">
       <c r="J18" s="79" t="s">
         <v>139</v>
       </c>
@@ -12256,7 +12268,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="19" spans="3:23" x14ac:dyDescent="0.35">
+    <row r="19" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C19" s="65"/>
       <c r="D19" s="65"/>
       <c r="E19" s="65"/>
@@ -12270,7 +12282,7 @@
         <v>2022</v>
       </c>
     </row>
-    <row r="20" spans="3:23" ht="58" x14ac:dyDescent="0.35">
+    <row r="20" spans="3:23" ht="48" x14ac:dyDescent="0.2">
       <c r="C20" s="67"/>
       <c r="D20" s="67"/>
       <c r="E20" s="67"/>
@@ -12280,7 +12292,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="21" spans="3:23" x14ac:dyDescent="0.35">
+    <row r="21" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C21" s="69" t="s">
         <v>121</v>
       </c>
@@ -12289,7 +12301,7 @@
       <c r="F21" s="70"/>
       <c r="G21" s="67"/>
     </row>
-    <row r="22" spans="3:23" x14ac:dyDescent="0.35">
+    <row r="22" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C22" s="69"/>
       <c r="D22" s="71" t="s">
         <v>122</v>
@@ -12323,7 +12335,7 @@
       <c r="U22" s="286"/>
       <c r="V22" s="286"/>
     </row>
-    <row r="23" spans="3:23" x14ac:dyDescent="0.35">
+    <row r="23" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C23" s="67"/>
       <c r="D23" s="69" t="s">
         <v>123</v>
@@ -12338,12 +12350,12 @@
       <c r="H23">
         <v>0</v>
       </c>
-      <c r="K23" s="311" t="s">
+      <c r="K23" s="318" t="s">
         <v>108</v>
       </c>
-      <c r="L23" s="311"/>
-      <c r="M23" s="311"/>
-      <c r="N23" s="311"/>
+      <c r="L23" s="318"/>
+      <c r="M23" s="318"/>
+      <c r="N23" s="318"/>
       <c r="O23" s="35" t="s">
         <v>146</v>
       </c>
@@ -12351,7 +12363,7 @@
       <c r="Q23" s="35"/>
       <c r="R23" s="35"/>
     </row>
-    <row r="24" spans="3:23" x14ac:dyDescent="0.35">
+    <row r="24" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C24" s="67"/>
       <c r="D24" s="69" t="s">
         <v>124</v>
@@ -12403,7 +12415,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="25" spans="3:23" x14ac:dyDescent="0.35">
+    <row r="25" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C25" s="67"/>
       <c r="D25" s="69" t="s">
         <v>58</v>
@@ -12427,7 +12439,7 @@
       <c r="Q25" s="35"/>
       <c r="R25" s="35"/>
     </row>
-    <row r="26" spans="3:23" x14ac:dyDescent="0.35">
+    <row r="26" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C26" s="67"/>
       <c r="D26" s="69"/>
       <c r="E26" s="67"/>
@@ -12486,7 +12498,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="27" spans="3:23" ht="30.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="27" spans="3:23" ht="30.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C27" s="67"/>
       <c r="D27" s="69"/>
       <c r="E27" s="224" t="s">
@@ -12511,8 +12523,8 @@
       <c r="R27" s="35"/>
       <c r="S27" s="72"/>
     </row>
-    <row r="28" spans="3:23" x14ac:dyDescent="0.35">
-      <c r="I28" s="307" t="s">
+    <row r="28" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="I28" s="314" t="s">
         <v>259</v>
       </c>
       <c r="J28" s="82" t="s">
@@ -12549,7 +12561,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="3:23" x14ac:dyDescent="0.35">
+    <row r="29" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C29" t="s">
         <v>126</v>
       </c>
@@ -12563,7 +12575,7 @@
       <c r="H29">
         <v>67</v>
       </c>
-      <c r="I29" s="307"/>
+      <c r="I29" s="314"/>
       <c r="J29" s="82" t="s">
         <v>143</v>
       </c>
@@ -12596,7 +12608,7 @@
       </c>
       <c r="S29" s="72"/>
     </row>
-    <row r="30" spans="3:23" x14ac:dyDescent="0.35">
+    <row r="30" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C30" t="s">
         <v>127</v>
       </c>
@@ -12612,7 +12624,7 @@
         <f>H29</f>
         <v>67</v>
       </c>
-      <c r="I30" s="307"/>
+      <c r="I30" s="314"/>
       <c r="J30" s="82" t="s">
         <v>142</v>
       </c>
@@ -12645,7 +12657,7 @@
       </c>
       <c r="S30" s="72"/>
     </row>
-    <row r="31" spans="3:23" x14ac:dyDescent="0.35">
+    <row r="31" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C31" s="177" t="s">
         <v>128</v>
       </c>
@@ -12661,7 +12673,7 @@
         <f>24</f>
         <v>24</v>
       </c>
-      <c r="I31" s="307"/>
+      <c r="I31" s="314"/>
       <c r="J31" s="35" t="s">
         <v>140</v>
       </c>
@@ -12689,7 +12701,7 @@
       </c>
       <c r="S31" s="72"/>
     </row>
-    <row r="32" spans="3:23" x14ac:dyDescent="0.35">
+    <row r="32" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C32" s="177" t="s">
         <v>129</v>
       </c>
@@ -12707,7 +12719,7 @@
       </c>
       <c r="N32" s="72"/>
     </row>
-    <row r="33" spans="3:23" x14ac:dyDescent="0.35">
+    <row r="33" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C33" t="s">
         <v>145</v>
       </c>
@@ -12723,7 +12735,7 @@
         <f t="shared" si="8"/>
         <v>24</v>
       </c>
-      <c r="I33" s="307" t="s">
+      <c r="I33" s="314" t="s">
         <v>141</v>
       </c>
       <c r="J33" s="85" t="s">
@@ -12770,8 +12782,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="34" spans="3:23" x14ac:dyDescent="0.35">
-      <c r="I34" s="307"/>
+    <row r="34" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="I34" s="314"/>
       <c r="J34" t="s">
         <v>260</v>
       </c>
@@ -12816,19 +12828,19 @@
         <v>15</v>
       </c>
     </row>
-    <row r="35" spans="3:23" x14ac:dyDescent="0.35">
+    <row r="35" spans="3:23" x14ac:dyDescent="0.2">
       <c r="N35" s="72">
         <f>SUM(K34:N34)</f>
         <v>119.04333333333334</v>
       </c>
       <c r="R35" s="72"/>
     </row>
-    <row r="36" spans="3:23" x14ac:dyDescent="0.35">
+    <row r="36" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C36" t="s">
         <v>269</v>
       </c>
     </row>
-    <row r="37" spans="3:23" x14ac:dyDescent="0.35">
+    <row r="37" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C37" t="s">
         <v>270</v>
       </c>
@@ -12849,7 +12861,7 @@
         <v>0</v>
       </c>
       <c r="M37" s="72">
-        <f t="shared" si="10"/>
+        <f>M33+M28</f>
         <v>208.73333333333332</v>
       </c>
       <c r="N37" s="72">
@@ -12876,7 +12888,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="38" spans="3:23" x14ac:dyDescent="0.35">
+    <row r="38" spans="3:23" x14ac:dyDescent="0.2">
       <c r="F38">
         <v>433</v>
       </c>
@@ -12926,7 +12938,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="40" spans="3:23" x14ac:dyDescent="0.35">
+    <row r="40" spans="3:23" x14ac:dyDescent="0.2">
       <c r="O40" s="72">
         <f>O37-O28</f>
         <v>32</v>
@@ -12950,12 +12962,6 @@
     </row>
   </sheetData>
   <mergeCells count="13">
-    <mergeCell ref="A2:J2"/>
-    <mergeCell ref="A3:J3"/>
-    <mergeCell ref="A4:J4"/>
-    <mergeCell ref="C5:J5"/>
-    <mergeCell ref="L5:N5"/>
-    <mergeCell ref="K4:N4"/>
     <mergeCell ref="O22:R22"/>
     <mergeCell ref="S22:V22"/>
     <mergeCell ref="I28:I31"/>
@@ -12963,6 +12969,12 @@
     <mergeCell ref="C6:J6"/>
     <mergeCell ref="K23:N23"/>
     <mergeCell ref="K22:N22"/>
+    <mergeCell ref="A2:J2"/>
+    <mergeCell ref="A3:J3"/>
+    <mergeCell ref="A4:J4"/>
+    <mergeCell ref="C5:J5"/>
+    <mergeCell ref="L5:N5"/>
+    <mergeCell ref="K4:N4"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <legacyDrawing r:id="rId1"/>
@@ -12977,19 +12989,19 @@
       <selection activeCell="E21" sqref="E21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>85</v>
       </c>
     </row>
-    <row r="2" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>86</v>
       </c>
     </row>
-    <row r="4" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A4" s="36" t="s">
         <v>94</v>
       </c>
@@ -13017,7 +13029,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="5" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A5" s="39"/>
       <c r="B5" s="39"/>
       <c r="C5" s="39"/>
@@ -13065,29 +13077,29 @@
         <v>2030</v>
       </c>
     </row>
-    <row r="6" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A6" s="41"/>
       <c r="B6" s="41"/>
       <c r="C6" s="41"/>
       <c r="D6" s="41"/>
-      <c r="E6" s="320" t="s">
+      <c r="E6" s="322" t="s">
         <v>87</v>
       </c>
-      <c r="F6" s="320"/>
-      <c r="G6" s="320"/>
-      <c r="H6" s="320"/>
-      <c r="I6" s="320"/>
-      <c r="J6" s="320"/>
-      <c r="K6" s="320"/>
-      <c r="L6" s="320"/>
-      <c r="M6" s="320"/>
-      <c r="N6" s="320"/>
-      <c r="O6" s="320"/>
-      <c r="P6" s="320"/>
-      <c r="Q6" s="320"/>
-      <c r="R6" s="320"/>
-    </row>
-    <row r="7" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="F6" s="322"/>
+      <c r="G6" s="322"/>
+      <c r="H6" s="322"/>
+      <c r="I6" s="322"/>
+      <c r="J6" s="322"/>
+      <c r="K6" s="322"/>
+      <c r="L6" s="322"/>
+      <c r="M6" s="322"/>
+      <c r="N6" s="322"/>
+      <c r="O6" s="322"/>
+      <c r="P6" s="322"/>
+      <c r="Q6" s="322"/>
+      <c r="R6" s="322"/>
+    </row>
+    <row r="7" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A7" s="319" t="s">
         <v>88</v>
       </c>
@@ -13109,7 +13121,7 @@
       <c r="Q7" s="36"/>
       <c r="R7" s="36"/>
     </row>
-    <row r="8" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A8" s="36"/>
       <c r="B8" s="319" t="s">
         <v>89</v>
@@ -13159,7 +13171,7 @@
         <v>22653.71</v>
       </c>
     </row>
-    <row r="9" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A9" s="36"/>
       <c r="B9" s="319" t="s">
         <v>90</v>
@@ -13209,7 +13221,7 @@
         <v>15406.718999999999</v>
       </c>
     </row>
-    <row r="10" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A10" s="36"/>
       <c r="B10" s="319" t="s">
         <v>91</v>
@@ -13259,7 +13271,7 @@
         <v>3152.433</v>
       </c>
     </row>
-    <row r="11" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A11" s="36"/>
       <c r="B11" s="319" t="s">
         <v>58</v>
@@ -13309,7 +13321,7 @@
         <v>3725.3310000000001</v>
       </c>
     </row>
-    <row r="12" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A12" s="36"/>
       <c r="B12" s="36"/>
       <c r="C12" s="36"/>
@@ -13357,7 +13369,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="13" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A13" s="36"/>
       <c r="B13" s="36"/>
       <c r="C13" s="319" t="s">
@@ -13407,7 +13419,7 @@
         <v>44938.192999999999</v>
       </c>
     </row>
-    <row r="14" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A14" s="36"/>
       <c r="B14" s="36"/>
       <c r="C14" s="36"/>
@@ -13457,7 +13469,7 @@
         <v>33837.324000000001</v>
       </c>
     </row>
-    <row r="15" spans="1:18" ht="17" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:18" ht="16" x14ac:dyDescent="0.2">
       <c r="A15" s="36"/>
       <c r="B15" s="36"/>
       <c r="C15" s="36"/>
@@ -13507,12 +13519,12 @@
         <v>11100.869000000001</v>
       </c>
     </row>
-    <row r="17" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
         <v>103</v>
       </c>
     </row>
-    <row r="19" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A19" s="36"/>
       <c r="B19" s="319" t="s">
         <v>89</v>
@@ -13575,7 +13587,7 @@
         <v>22863.275999999998</v>
       </c>
     </row>
-    <row r="20" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A20" s="36"/>
       <c r="B20" s="319" t="s">
         <v>90</v>
@@ -13639,7 +13651,7 @@
       </c>
       <c r="S20" s="42"/>
     </row>
-    <row r="21" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A21" s="36"/>
       <c r="B21" s="319" t="s">
         <v>91</v>
@@ -13702,7 +13714,7 @@
         <v>3314.95</v>
       </c>
     </row>
-    <row r="22" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A22" s="36"/>
       <c r="B22" s="319" t="s">
         <v>58</v>
@@ -13765,7 +13777,7 @@
         <v>3821.0209999999997</v>
       </c>
     </row>
-    <row r="23" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A23" s="36"/>
       <c r="B23" s="36"/>
       <c r="C23" s="36"/>
@@ -13813,7 +13825,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="27" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A27" s="24"/>
       <c r="B27" s="10"/>
       <c r="C27" s="24"/>
@@ -13821,23 +13833,23 @@
       <c r="E27" s="24"/>
       <c r="F27" s="24"/>
       <c r="G27" s="24"/>
-      <c r="H27" s="321" t="s">
+      <c r="H27" s="320" t="s">
         <v>95</v>
       </c>
-      <c r="I27" s="321"/>
-      <c r="J27" s="321"/>
-      <c r="K27" s="321"/>
-      <c r="L27" s="321"/>
-      <c r="M27" s="321"/>
-      <c r="N27" s="321"/>
-      <c r="O27" s="321"/>
-      <c r="P27" s="321"/>
-      <c r="Q27" s="321"/>
-      <c r="R27" s="321"/>
-      <c r="S27" s="321"/>
-      <c r="T27" s="321"/>
-    </row>
-    <row r="28" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="I27" s="320"/>
+      <c r="J27" s="320"/>
+      <c r="K27" s="320"/>
+      <c r="L27" s="320"/>
+      <c r="M27" s="320"/>
+      <c r="N27" s="320"/>
+      <c r="O27" s="320"/>
+      <c r="P27" s="320"/>
+      <c r="Q27" s="320"/>
+      <c r="R27" s="320"/>
+      <c r="S27" s="320"/>
+      <c r="T27" s="320"/>
+    </row>
+    <row r="28" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A28" s="24" t="s">
         <v>96</v>
       </c>
@@ -13861,7 +13873,7 @@
       <c r="S28" s="26"/>
       <c r="T28" s="26"/>
     </row>
-    <row r="29" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A29" s="24"/>
       <c r="B29" s="10" t="s">
         <v>89</v>
@@ -13909,7 +13921,7 @@
         <v>-1551.309</v>
       </c>
     </row>
-    <row r="30" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A30" s="24"/>
       <c r="B30" s="10" t="s">
         <v>90</v>
@@ -13957,7 +13969,7 @@
         <v>-656.35500000000002</v>
       </c>
     </row>
-    <row r="31" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A31" s="24"/>
       <c r="B31" s="10" t="s">
         <v>91</v>
@@ -14005,7 +14017,7 @@
         <v>-276.72699999999998</v>
       </c>
     </row>
-    <row r="32" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A32" s="24"/>
       <c r="B32" s="10" t="s">
         <v>58</v>
@@ -14053,7 +14065,7 @@
         <v>407.49900000000002</v>
       </c>
     </row>
-    <row r="33" spans="1:18" ht="3" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:18" ht="3" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A33" s="24"/>
       <c r="B33" s="10"/>
       <c r="C33" s="24"/>
@@ -14097,7 +14109,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="34" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A34" s="24"/>
       <c r="B34" s="10"/>
       <c r="C34" s="24"/>
@@ -14145,29 +14157,29 @@
         <v>-2076.8919999999998</v>
       </c>
     </row>
-    <row r="37" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A37" s="10"/>
       <c r="B37" s="10"/>
       <c r="C37" s="10"/>
       <c r="D37" s="10"/>
       <c r="E37" s="10"/>
-      <c r="F37" s="322" t="s">
+      <c r="F37" s="321" t="s">
         <v>99</v>
       </c>
-      <c r="G37" s="322"/>
-      <c r="H37" s="322"/>
-      <c r="I37" s="322"/>
-      <c r="J37" s="322"/>
-      <c r="K37" s="322"/>
-      <c r="L37" s="322"/>
-      <c r="M37" s="322"/>
-      <c r="N37" s="322"/>
-      <c r="O37" s="322"/>
-      <c r="P37" s="322"/>
-      <c r="Q37" s="322"/>
-      <c r="R37" s="322"/>
-    </row>
-    <row r="38" spans="1:18" ht="17" x14ac:dyDescent="0.35">
+      <c r="G37" s="321"/>
+      <c r="H37" s="321"/>
+      <c r="I37" s="321"/>
+      <c r="J37" s="321"/>
+      <c r="K37" s="321"/>
+      <c r="L37" s="321"/>
+      <c r="M37" s="321"/>
+      <c r="N37" s="321"/>
+      <c r="O37" s="321"/>
+      <c r="P37" s="321"/>
+      <c r="Q37" s="321"/>
+      <c r="R37" s="321"/>
+    </row>
+    <row r="38" spans="1:18" ht="16" x14ac:dyDescent="0.2">
       <c r="A38" s="24" t="s">
         <v>100</v>
       </c>
@@ -14189,7 +14201,7 @@
       <c r="Q38" s="26"/>
       <c r="R38" s="26"/>
     </row>
-    <row r="39" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A39" s="24"/>
       <c r="B39" s="10" t="s">
         <v>89</v>
@@ -14237,7 +14249,7 @@
         <v>114.194</v>
       </c>
     </row>
-    <row r="40" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A40" s="24"/>
       <c r="B40" s="10" t="s">
         <v>91</v>
@@ -14285,7 +14297,7 @@
         <v>44.915999999999997</v>
       </c>
     </row>
-    <row r="41" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A41" s="24"/>
       <c r="B41" s="10" t="s">
         <v>90</v>
@@ -14333,7 +14345,7 @@
         <v>-4.3769999999999998</v>
       </c>
     </row>
-    <row r="42" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A42" s="24"/>
       <c r="B42" s="10" t="s">
         <v>58</v>
@@ -14381,7 +14393,7 @@
         <v>-1.5840000000000001</v>
       </c>
     </row>
-    <row r="43" spans="1:18" ht="3" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:18" ht="3" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A43" s="24"/>
       <c r="B43" s="10"/>
       <c r="C43" s="24"/>
@@ -14427,7 +14439,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="44" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A44" s="24"/>
       <c r="B44" s="10"/>
       <c r="C44" s="24" t="s">
@@ -14475,29 +14487,29 @@
         <v>153.149</v>
       </c>
     </row>
-    <row r="48" spans="1:18" ht="12" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="48" spans="1:18" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A48" s="10"/>
       <c r="B48" s="24"/>
       <c r="C48" s="10"/>
       <c r="D48" s="10"/>
       <c r="E48" s="10"/>
-      <c r="F48" s="321" t="s">
+      <c r="F48" s="320" t="s">
         <v>101</v>
       </c>
-      <c r="G48" s="321"/>
-      <c r="H48" s="321"/>
-      <c r="I48" s="321"/>
-      <c r="J48" s="321"/>
-      <c r="K48" s="321"/>
-      <c r="L48" s="321"/>
-      <c r="M48" s="321"/>
-      <c r="N48" s="321"/>
-      <c r="O48" s="321"/>
-      <c r="P48" s="321"/>
-      <c r="Q48" s="321"/>
-      <c r="R48" s="321"/>
-    </row>
-    <row r="49" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="G48" s="320"/>
+      <c r="H48" s="320"/>
+      <c r="I48" s="320"/>
+      <c r="J48" s="320"/>
+      <c r="K48" s="320"/>
+      <c r="L48" s="320"/>
+      <c r="M48" s="320"/>
+      <c r="N48" s="320"/>
+      <c r="O48" s="320"/>
+      <c r="P48" s="320"/>
+      <c r="Q48" s="320"/>
+      <c r="R48" s="320"/>
+    </row>
+    <row r="49" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A49" s="24" t="s">
         <v>96</v>
       </c>
@@ -14519,7 +14531,7 @@
       <c r="Q49" s="24"/>
       <c r="R49" s="24"/>
     </row>
-    <row r="50" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="50" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A50" s="24"/>
       <c r="B50" s="10" t="s">
         <v>89</v>
@@ -14567,7 +14579,7 @@
         <v>-323.76</v>
       </c>
     </row>
-    <row r="51" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="51" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A51" s="10"/>
       <c r="B51" s="10" t="s">
         <v>91</v>
@@ -14615,7 +14627,7 @@
         <v>-207.43299999999999</v>
       </c>
     </row>
-    <row r="52" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="52" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A52" s="10"/>
       <c r="B52" s="10" t="s">
         <v>90</v>
@@ -14663,7 +14675,7 @@
         <v>-109.739</v>
       </c>
     </row>
-    <row r="53" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="53" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A53" s="10"/>
       <c r="B53" s="10" t="s">
         <v>58</v>
@@ -14711,7 +14723,7 @@
         <v>-94.105999999999995</v>
       </c>
     </row>
-    <row r="54" spans="1:18" ht="3" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="54" spans="1:18" ht="3" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A54" s="10"/>
       <c r="B54" s="10"/>
       <c r="C54" s="10"/>
@@ -14757,7 +14769,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="55" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="55" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A55" s="10"/>
       <c r="B55" s="24"/>
       <c r="C55" s="10"/>
@@ -14807,6 +14819,12 @@
     </row>
   </sheetData>
   <mergeCells count="14">
+    <mergeCell ref="B11:D11"/>
+    <mergeCell ref="E6:R6"/>
+    <mergeCell ref="A7:D7"/>
+    <mergeCell ref="B8:D8"/>
+    <mergeCell ref="B9:D9"/>
+    <mergeCell ref="B10:D10"/>
     <mergeCell ref="C13:D13"/>
     <mergeCell ref="H27:T27"/>
     <mergeCell ref="F37:R37"/>
@@ -14815,12 +14833,6 @@
     <mergeCell ref="B20:D20"/>
     <mergeCell ref="B21:D21"/>
     <mergeCell ref="B22:D22"/>
-    <mergeCell ref="B11:D11"/>
-    <mergeCell ref="E6:R6"/>
-    <mergeCell ref="A7:D7"/>
-    <mergeCell ref="B8:D8"/>
-    <mergeCell ref="B9:D9"/>
-    <mergeCell ref="B10:D10"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -14836,9 +14848,9 @@
       <selection pane="bottomLeft" activeCell="J18" sqref="J18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:19" s="6" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:19" s="6" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A1" s="4" t="s">
         <v>30</v>
       </c>
@@ -14847,7 +14859,7 @@
       <c r="D1" s="5"/>
       <c r="E1" s="5"/>
     </row>
-    <row r="2" spans="1:19" s="6" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:19" s="6" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="7" t="s">
         <v>31</v>
       </c>
@@ -14856,9 +14868,9 @@
       <c r="D2" s="8"/>
       <c r="E2" s="8"/>
     </row>
-    <row r="3" spans="1:19" s="6" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="4" spans="1:19" s="6" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="5" spans="1:19" s="6" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:19" s="6" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="4" spans="1:19" s="6" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="5" spans="1:19" s="6" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A5" s="300" t="s">
         <v>32</v>
       </c>
@@ -14881,7 +14893,7 @@
       <c r="R5" s="301"/>
       <c r="S5" s="301"/>
     </row>
-    <row r="6" spans="1:19" s="6" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:19" s="6" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A6" s="302" t="s">
         <v>33</v>
       </c>
@@ -14904,7 +14916,7 @@
       <c r="R6" s="302"/>
       <c r="S6" s="302"/>
     </row>
-    <row r="7" spans="1:19" s="6" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:19" s="6" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A7" s="9"/>
       <c r="B7" s="9"/>
       <c r="C7" s="9"/>
@@ -14925,7 +14937,7 @@
       <c r="R7" s="9"/>
       <c r="S7" s="9"/>
     </row>
-    <row r="8" spans="1:19" s="6" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:19" s="6" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A8" s="10"/>
       <c r="B8" s="10"/>
       <c r="C8" s="11"/>
@@ -14947,7 +14959,7 @@
       </c>
       <c r="S8" s="304"/>
     </row>
-    <row r="9" spans="1:19" s="6" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:19" s="6" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A9" s="10"/>
       <c r="B9" s="10"/>
       <c r="C9" s="14"/>
@@ -14974,7 +14986,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="10" spans="1:19" s="6" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:19" s="6" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A10" s="19"/>
       <c r="B10" s="19"/>
       <c r="C10" s="20"/>
@@ -15023,7 +15035,7 @@
         <v>2030</v>
       </c>
     </row>
-    <row r="11" spans="1:19" s="6" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:19" s="6" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A11" s="10" t="s">
         <v>37</v>
       </c>
@@ -15046,7 +15058,7 @@
       <c r="R11" s="24"/>
       <c r="S11" s="24"/>
     </row>
-    <row r="12" spans="1:19" s="6" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:19" s="6" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A12" s="10"/>
       <c r="B12" s="10" t="s">
         <v>38</v>
@@ -15097,7 +15109,7 @@
         <v>12876.373</v>
       </c>
     </row>
-    <row r="13" spans="1:19" s="6" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:19" s="6" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A13" s="10"/>
       <c r="B13" s="10" t="s">
         <v>39</v>
@@ -15148,7 +15160,7 @@
         <v>1805.0319999999999</v>
       </c>
     </row>
-    <row r="14" spans="1:19" s="6" customFormat="1" ht="3" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:19" s="6" customFormat="1" ht="3" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A14" s="10"/>
       <c r="B14" s="10"/>
       <c r="C14" s="10"/>
@@ -15197,7 +15209,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="15" spans="1:19" s="6" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:19" s="6" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A15" s="10"/>
       <c r="B15" s="10"/>
       <c r="C15" s="10"/>
@@ -15248,7 +15260,7 @@
         <v>14681.405000000001</v>
       </c>
     </row>
-    <row r="16" spans="1:19" s="6" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:19" s="6" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A16" s="10"/>
       <c r="B16" s="10"/>
       <c r="C16" s="10"/>
@@ -15269,7 +15281,7 @@
       <c r="R16" s="23"/>
       <c r="S16" s="23"/>
     </row>
-    <row r="17" spans="1:20" s="6" customFormat="1" ht="14" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:20" s="6" customFormat="1" ht="14" x14ac:dyDescent="0.15">
       <c r="A17" s="10" t="s">
         <v>43</v>
       </c>
@@ -15292,7 +15304,7 @@
       <c r="R17" s="24"/>
       <c r="S17" s="24"/>
     </row>
-    <row r="18" spans="1:20" s="6" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:20" s="6" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A18" s="10"/>
       <c r="B18" s="28" t="s">
         <v>44</v>
@@ -15343,7 +15355,7 @@
         <v>12109.843000000001</v>
       </c>
     </row>
-    <row r="19" spans="1:20" s="6" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:20" s="6" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A19" s="10"/>
       <c r="B19" s="28" t="s">
         <v>2</v>
@@ -15394,7 +15406,7 @@
         <v>5805.7169999999996</v>
       </c>
     </row>
-    <row r="20" spans="1:20" s="6" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:20" s="6" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A20" s="10"/>
       <c r="B20" s="28" t="s">
         <v>45</v>
@@ -15445,7 +15457,7 @@
         <v>601.34900000000005</v>
       </c>
     </row>
-    <row r="21" spans="1:20" s="6" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:20" s="6" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A21" s="10"/>
       <c r="B21" s="28" t="s">
         <v>46</v>
@@ -15496,7 +15508,7 @@
         <v>168.07</v>
       </c>
     </row>
-    <row r="22" spans="1:20" s="6" customFormat="1" ht="3" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:20" s="6" customFormat="1" ht="3" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A22" s="10"/>
       <c r="B22" s="10"/>
       <c r="C22" s="10"/>
@@ -15545,7 +15557,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="23" spans="1:20" s="6" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:20" s="6" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A23" s="10"/>
       <c r="B23" s="10"/>
       <c r="C23" s="10"/>
@@ -15597,7 +15609,7 @@
       </c>
       <c r="T23" s="25"/>
     </row>
-    <row r="24" spans="1:20" s="6" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:20" s="6" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A24" s="10"/>
       <c r="B24" s="10"/>
       <c r="C24" s="10"/>
@@ -15621,7 +15633,7 @@
       <c r="R24" s="23"/>
       <c r="S24" s="23"/>
     </row>
-    <row r="25" spans="1:20" s="6" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:20" s="6" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A25" s="10" t="s">
         <v>48</v>
       </c>
@@ -15644,7 +15656,7 @@
       <c r="R25" s="23"/>
       <c r="S25" s="23"/>
     </row>
-    <row r="26" spans="1:20" s="6" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:20" s="6" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A26" s="10"/>
       <c r="B26" s="10" t="s">
         <v>49</v>
@@ -15695,7 +15707,7 @@
         <v>930.94100000000003</v>
       </c>
     </row>
-    <row r="27" spans="1:20" s="6" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:20" s="6" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A27" s="10"/>
       <c r="B27" s="10" t="s">
         <v>50</v>
@@ -15746,7 +15758,7 @@
         <v>875.31100000000004</v>
       </c>
     </row>
-    <row r="28" spans="1:20" s="6" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:20" s="6" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A28" s="10"/>
       <c r="B28" s="10" t="s">
         <v>51</v>
@@ -15797,7 +15809,7 @@
         <v>682.72</v>
       </c>
     </row>
-    <row r="29" spans="1:20" s="6" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:20" s="6" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A29" s="10"/>
       <c r="B29" s="10" t="s">
         <v>52</v>
@@ -15848,7 +15860,7 @@
         <v>610.42399999999998</v>
       </c>
     </row>
-    <row r="30" spans="1:20" s="6" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:20" s="6" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A30" s="10"/>
       <c r="B30" s="10" t="s">
         <v>53</v>
@@ -15899,7 +15911,7 @@
         <v>340.57900000000001</v>
       </c>
     </row>
-    <row r="31" spans="1:20" s="6" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:20" s="6" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A31" s="10"/>
       <c r="B31" s="10" t="s">
         <v>54</v>
@@ -15950,7 +15962,7 @@
         <v>298.62400000000002</v>
       </c>
     </row>
-    <row r="32" spans="1:20" s="6" customFormat="1" ht="3" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:20" s="6" customFormat="1" ht="3" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A32" s="10"/>
       <c r="B32" s="10"/>
       <c r="C32" s="10"/>
@@ -15999,7 +16011,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="33" spans="1:24" s="6" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:24" s="6" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A33" s="10"/>
       <c r="B33" s="10"/>
       <c r="C33" s="10"/>
@@ -16050,7 +16062,7 @@
         <v>3738.5990000000002</v>
       </c>
     </row>
-    <row r="34" spans="1:24" s="6" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:24" s="6" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A34" s="10"/>
       <c r="B34" s="10"/>
       <c r="C34" s="10"/>
@@ -16081,7 +16093,7 @@
         <v>1069</v>
       </c>
     </row>
-    <row r="35" spans="1:24" s="6" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:24" s="6" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A35" s="10" t="s">
         <v>55</v>
       </c>
@@ -16117,7 +16129,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="36" spans="1:24" s="6" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:24" s="6" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A36" s="10"/>
       <c r="B36" s="10" t="s">
         <v>56</v>
@@ -16181,7 +16193,7 @@
         <v>270</v>
       </c>
     </row>
-    <row r="37" spans="1:24" s="6" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:24" s="6" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A37" s="10"/>
       <c r="B37" s="10" t="s">
         <v>57</v>
@@ -16245,7 +16257,7 @@
         <v>529</v>
       </c>
     </row>
-    <row r="38" spans="1:24" s="6" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:24" s="6" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A38" s="10"/>
       <c r="B38" s="10" t="s">
         <v>58</v>
@@ -16309,7 +16321,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="39" spans="1:24" s="6" customFormat="1" ht="3" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:24" s="6" customFormat="1" ht="3" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A39" s="10"/>
       <c r="B39" s="10"/>
       <c r="C39" s="10"/>
@@ -16358,7 +16370,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="40" spans="1:24" s="6" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:24" s="6" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A40" s="10"/>
       <c r="B40" s="10"/>
       <c r="C40" s="10"/>
@@ -16422,7 +16434,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="41" spans="1:24" s="6" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:24" s="6" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A41" s="10"/>
       <c r="B41" s="10"/>
       <c r="C41" s="10"/>
@@ -16456,7 +16468,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="42" spans="1:24" s="6" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:24" s="6" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A42" s="10" t="s">
         <v>59</v>
       </c>
@@ -16492,7 +16504,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="43" spans="1:24" s="6" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:24" s="6" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A43" s="10"/>
       <c r="B43" s="10" t="s">
         <v>60</v>
@@ -16548,7 +16560,7 @@
         <v>1080</v>
       </c>
     </row>
-    <row r="44" spans="1:24" s="6" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:24" s="6" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A44" s="10"/>
       <c r="B44" s="10" t="s">
         <v>58</v>
@@ -16599,7 +16611,7 @@
         <v>183.27699999999999</v>
       </c>
     </row>
-    <row r="45" spans="1:24" s="6" customFormat="1" ht="3" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:24" s="6" customFormat="1" ht="3" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A45" s="10"/>
       <c r="B45" s="10"/>
       <c r="C45" s="10"/>
@@ -16648,7 +16660,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="46" spans="1:24" s="6" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:24" s="6" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A46" s="10"/>
       <c r="B46" s="10"/>
       <c r="C46" s="10"/>
@@ -16699,7 +16711,7 @@
         <v>1517.9280000000001</v>
       </c>
     </row>
-    <row r="47" spans="1:24" s="91" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:24" s="91" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A47" s="89"/>
       <c r="B47" s="89"/>
       <c r="C47" s="89"/>
@@ -16732,7 +16744,7 @@
       <c r="R47" s="90"/>
       <c r="S47" s="90"/>
     </row>
-    <row r="48" spans="1:24" s="91" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:24" s="91" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A48" s="89" t="s">
         <v>148</v>
       </c>
@@ -16758,7 +16770,7 @@
       <c r="R48" s="90"/>
       <c r="S48" s="90"/>
     </row>
-    <row r="49" spans="1:19" s="91" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:19" s="91" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A49" s="89" t="s">
         <v>156</v>
       </c>
@@ -16790,7 +16802,7 @@
       <c r="R49" s="90"/>
       <c r="S49" s="90"/>
     </row>
-    <row r="50" spans="1:19" s="91" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:19" s="91" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A50" s="89" t="s">
         <v>157</v>
       </c>
@@ -16822,7 +16834,7 @@
       <c r="R50" s="90"/>
       <c r="S50" s="90"/>
     </row>
-    <row r="51" spans="1:19" s="91" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:19" s="91" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A51" s="89"/>
       <c r="B51" s="89"/>
       <c r="C51" s="89"/>
@@ -16843,7 +16855,7 @@
       <c r="R51" s="92"/>
       <c r="S51" s="92"/>
     </row>
-    <row r="52" spans="1:19" s="6" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:19" s="6" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A52" s="10" t="s">
         <v>61</v>
       </c>
@@ -16866,7 +16878,7 @@
       <c r="R52" s="24"/>
       <c r="S52" s="24"/>
     </row>
-    <row r="53" spans="1:19" s="6" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:19" s="6" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A53" s="10"/>
       <c r="B53" s="10" t="s">
         <v>62</v>
@@ -16917,7 +16929,7 @@
         <v>0.17199999999999999</v>
       </c>
     </row>
-    <row r="54" spans="1:19" s="6" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:19" s="6" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A54" s="10"/>
       <c r="B54" s="10" t="s">
         <v>63</v>
@@ -16968,7 +16980,7 @@
         <v>2.5999999999999999E-2</v>
       </c>
     </row>
-    <row r="55" spans="1:19" s="6" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:19" s="6" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A55" s="10"/>
       <c r="B55" s="10" t="s">
         <v>64</v>
@@ -17019,7 +17031,7 @@
         <v>179.15</v>
       </c>
     </row>
-    <row r="56" spans="1:19" s="6" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:19" s="6" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A56" s="10"/>
       <c r="B56" s="10" t="s">
         <v>65</v>
@@ -17070,7 +17082,7 @@
         <v>-42.021999999999998</v>
       </c>
     </row>
-    <row r="57" spans="1:19" s="6" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:19" s="6" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A57" s="10"/>
       <c r="B57" s="10" t="s">
         <v>66</v>
@@ -17121,7 +17133,7 @@
         <v>140.99100000000001</v>
       </c>
     </row>
-    <row r="58" spans="1:19" s="6" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:19" s="6" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A58" s="10"/>
       <c r="B58" s="28" t="s">
         <v>67</v>
@@ -17172,7 +17184,7 @@
         <v>51.79</v>
       </c>
     </row>
-    <row r="59" spans="1:19" s="6" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:19" s="6" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A59" s="10"/>
       <c r="B59" s="10" t="s">
         <v>68</v>
@@ -17223,7 +17235,7 @@
         <v>29.829000000000001</v>
       </c>
     </row>
-    <row r="60" spans="1:19" s="6" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:19" s="6" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A60" s="10"/>
       <c r="B60" s="10" t="s">
         <v>58</v>
@@ -17274,7 +17286,7 @@
         <v>697.76099999999997</v>
       </c>
     </row>
-    <row r="61" spans="1:19" s="6" customFormat="1" ht="3" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:19" s="6" customFormat="1" ht="3" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A61" s="10"/>
       <c r="B61" s="10"/>
       <c r="C61" s="10"/>
@@ -17323,7 +17335,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="62" spans="1:19" s="6" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:19" s="6" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A62" s="10"/>
       <c r="B62" s="10"/>
       <c r="C62" s="10"/>
@@ -17374,7 +17386,7 @@
         <v>1057.6969999999999</v>
       </c>
     </row>
-    <row r="63" spans="1:19" s="6" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:19" s="6" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A63" s="10"/>
       <c r="B63" s="10"/>
       <c r="C63" s="10"/>
@@ -17395,7 +17407,7 @@
       <c r="R63" s="25"/>
       <c r="S63" s="25"/>
     </row>
-    <row r="64" spans="1:19" s="6" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:19" s="6" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A64" s="10" t="s">
         <v>69</v>
       </c>
@@ -17418,7 +17430,7 @@
       <c r="R64" s="25"/>
       <c r="S64" s="25"/>
     </row>
-    <row r="65" spans="1:19" s="6" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:19" s="6" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A65" s="10" t="s">
         <v>70</v>
       </c>
@@ -17469,7 +17481,7 @@
         <v>41712.921000000002</v>
       </c>
     </row>
-    <row r="66" spans="1:19" s="6" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:19" s="6" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A66" s="10"/>
       <c r="B66" s="10"/>
       <c r="C66" s="10"/>
@@ -17490,7 +17502,7 @@
       <c r="R66" s="24"/>
       <c r="S66" s="24"/>
     </row>
-    <row r="67" spans="1:19" s="6" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:19" s="6" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A67" s="10" t="s">
         <v>71</v>
       </c>
@@ -17513,7 +17525,7 @@
       <c r="R67" s="24"/>
       <c r="S67" s="24"/>
     </row>
-    <row r="68" spans="1:19" s="6" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:19" s="6" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A68" s="10"/>
       <c r="B68" s="10" t="s">
         <v>72</v>
@@ -17564,7 +17576,7 @@
         <v>-2166.04</v>
       </c>
     </row>
-    <row r="69" spans="1:19" s="6" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:19" s="6" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A69" s="10"/>
       <c r="B69" s="10" t="s">
         <v>73</v>
@@ -17587,7 +17599,7 @@
       <c r="R69" s="23"/>
       <c r="S69" s="23"/>
     </row>
-    <row r="70" spans="1:19" s="6" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:19" s="6" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A70" s="10"/>
       <c r="B70" s="10" t="s">
         <v>74</v>
@@ -17610,7 +17622,7 @@
       <c r="R70" s="23"/>
       <c r="S70" s="23"/>
     </row>
-    <row r="71" spans="1:19" s="6" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:19" s="6" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A71" s="10"/>
       <c r="B71" s="10"/>
       <c r="C71" s="28" t="s">
@@ -17661,7 +17673,7 @@
         <v>-537.75800000000004</v>
       </c>
     </row>
-    <row r="72" spans="1:19" s="6" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:19" s="6" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A72" s="10"/>
       <c r="B72" s="10"/>
       <c r="C72" s="28" t="s">
@@ -17712,7 +17724,7 @@
         <v>-265.04899999999998</v>
       </c>
     </row>
-    <row r="73" spans="1:19" s="6" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:19" s="6" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A73" s="10"/>
       <c r="B73" s="10"/>
       <c r="C73" s="28" t="s">
@@ -17763,7 +17775,7 @@
         <v>-210.17099999999999</v>
       </c>
     </row>
-    <row r="74" spans="1:19" s="6" customFormat="1" ht="3" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:19" s="6" customFormat="1" ht="3" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A74" s="10"/>
       <c r="B74" s="10"/>
       <c r="C74" s="10"/>
@@ -17812,7 +17824,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="75" spans="1:19" s="6" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:19" s="6" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A75" s="10"/>
       <c r="B75" s="10"/>
       <c r="C75" s="10"/>
@@ -17863,7 +17875,7 @@
         <v>-1012.978</v>
       </c>
     </row>
-    <row r="76" spans="1:19" s="6" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:19" s="6" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A76" s="10"/>
       <c r="B76" s="28"/>
       <c r="C76" s="10"/>
@@ -17884,7 +17896,7 @@
       <c r="R76" s="23"/>
       <c r="S76" s="23"/>
     </row>
-    <row r="77" spans="1:19" s="6" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:19" s="6" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A77" s="10"/>
       <c r="B77" s="28" t="s">
         <v>77</v>
@@ -17935,7 +17947,7 @@
         <v>-120.02500000000001</v>
       </c>
     </row>
-    <row r="78" spans="1:19" s="6" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:19" s="6" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A78" s="10"/>
       <c r="B78" s="28" t="s">
         <v>66</v>
@@ -17986,7 +17998,7 @@
         <v>-108.732</v>
       </c>
     </row>
-    <row r="79" spans="1:19" s="6" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:19" s="6" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A79" s="10"/>
       <c r="B79" s="28" t="s">
         <v>67</v>
@@ -18037,7 +18049,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="80" spans="1:19" s="6" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:19" s="6" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A80" s="10"/>
       <c r="B80" s="28" t="s">
         <v>58</v>
@@ -18088,7 +18100,7 @@
         <v>-326.91500000000002</v>
       </c>
     </row>
-    <row r="81" spans="1:20" s="6" customFormat="1" ht="3" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:20" s="6" customFormat="1" ht="3" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A81" s="10"/>
       <c r="B81" s="28"/>
       <c r="C81" s="28"/>
@@ -18137,7 +18149,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="82" spans="1:20" s="6" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:20" s="6" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A82" s="10"/>
       <c r="B82" s="28"/>
       <c r="C82" s="10"/>
@@ -18188,7 +18200,7 @@
         <v>-3734.69</v>
       </c>
     </row>
-    <row r="83" spans="1:20" s="6" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:20" s="6" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A83" s="10"/>
       <c r="B83" s="10"/>
       <c r="C83" s="10"/>
@@ -18209,7 +18221,7 @@
       <c r="R83" s="24"/>
       <c r="S83" s="24"/>
     </row>
-    <row r="84" spans="1:20" s="6" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:20" s="6" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A84" s="10"/>
       <c r="B84" s="10"/>
       <c r="C84" s="10"/>
@@ -18232,7 +18244,7 @@
       <c r="R84" s="24"/>
       <c r="S84" s="24"/>
     </row>
-    <row r="85" spans="1:20" s="6" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:20" s="6" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A85" s="10"/>
       <c r="B85" s="10"/>
       <c r="C85" s="10"/>
@@ -18284,7 +18296,7 @@
       </c>
       <c r="T85" s="25"/>
     </row>
-    <row r="86" spans="1:20" s="6" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:20" s="6" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A86" s="10"/>
       <c r="B86" s="10"/>
       <c r="C86" s="10"/>
@@ -18306,7 +18318,7 @@
       <c r="S86" s="25"/>
       <c r="T86" s="25"/>
     </row>
-    <row r="87" spans="1:20" s="6" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:20" s="6" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A87" s="30" t="s">
         <v>80</v>
       </c>
@@ -18330,7 +18342,7 @@
       <c r="S87" s="25"/>
       <c r="T87" s="25"/>
     </row>
-    <row r="88" spans="1:20" s="6" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:20" s="6" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A88" s="10" t="s">
         <v>81</v>
       </c>
@@ -18353,7 +18365,7 @@
       <c r="R88" s="23"/>
       <c r="S88" s="23"/>
     </row>
-    <row r="89" spans="1:20" s="6" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:20" s="6" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A89" s="10"/>
       <c r="B89" s="10" t="s">
         <v>82</v>
@@ -18404,7 +18416,7 @@
         <v>9943.8029999999999</v>
       </c>
     </row>
-    <row r="90" spans="1:20" s="6" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:20" s="6" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A90" s="19"/>
       <c r="B90" s="19" t="s">
         <v>83</v>
@@ -18455,7 +18467,7 @@
         <v>16518.938999999998</v>
       </c>
     </row>
-    <row r="91" spans="1:20" s="6" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:20" s="6" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A91" s="10"/>
       <c r="B91" s="10"/>
       <c r="C91" s="31"/>
@@ -18501,22 +18513,22 @@
       <selection pane="bottomRight" activeCell="L17" sqref="L17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="2" max="2" width="23.6328125" customWidth="1"/>
-    <col min="4" max="4" width="10.36328125" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="9.36328125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="9.1796875" style="146" customWidth="1"/>
-    <col min="8" max="10" width="9.36328125" style="95" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="9.36328125" style="146" bestFit="1" customWidth="1"/>
-    <col min="13" max="14" width="8.6328125" customWidth="1"/>
-    <col min="15" max="15" width="8.6328125" style="146"/>
-    <col min="19" max="19" width="8.6328125" style="146"/>
-    <col min="23" max="23" width="8.6328125" style="146"/>
-    <col min="27" max="27" width="8.6328125" style="146"/>
+    <col min="2" max="2" width="23.6640625" customWidth="1"/>
+    <col min="4" max="4" width="10.33203125" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="9.33203125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="9.1640625" style="146" customWidth="1"/>
+    <col min="8" max="10" width="9.33203125" style="95" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="9.33203125" style="146" bestFit="1" customWidth="1"/>
+    <col min="13" max="14" width="8.6640625" customWidth="1"/>
+    <col min="15" max="15" width="8.6640625" style="146"/>
+    <col min="19" max="19" width="8.6640625" style="146"/>
+    <col min="23" max="23" width="8.6640625" style="146"/>
+    <col min="27" max="27" width="8.6640625" style="146"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:27" ht="18.5" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:27" ht="19" x14ac:dyDescent="0.25">
       <c r="A1" s="291" t="s">
         <v>208</v>
       </c>
@@ -18532,7 +18544,7 @@
       <c r="X1" s="286"/>
       <c r="Y1" s="286"/>
     </row>
-    <row r="2" spans="1:27" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A2" s="293" t="s">
         <v>192</v>
       </c>
@@ -18543,7 +18555,7 @@
       <c r="I2" s="251"/>
       <c r="J2" s="299"/>
     </row>
-    <row r="3" spans="1:27" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A3" s="294"/>
       <c r="B3" s="127"/>
       <c r="C3" t="s">
@@ -18552,21 +18564,21 @@
       <c r="I3" s="251"/>
       <c r="J3" s="299"/>
     </row>
-    <row r="4" spans="1:27" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A4" s="294"/>
       <c r="B4" s="128"/>
       <c r="C4" t="s">
         <v>195</v>
       </c>
     </row>
-    <row r="5" spans="1:27" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A5" s="295"/>
       <c r="B5" s="129"/>
       <c r="C5" t="s">
         <v>182</v>
       </c>
     </row>
-    <row r="7" spans="1:27" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C7" s="296" t="s">
         <v>160</v>
       </c>
@@ -18607,7 +18619,7 @@
         <v>279</v>
       </c>
     </row>
-    <row r="8" spans="1:27" s="2" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:27" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B8" s="2" t="s">
         <v>200</v>
       </c>
@@ -18687,7 +18699,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="9" spans="1:27" s="2" customFormat="1" ht="18.5" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:27" s="2" customFormat="1" ht="19" x14ac:dyDescent="0.25">
       <c r="A9" s="106" t="s">
         <v>165</v>
       </c>
@@ -18709,7 +18721,7 @@
       <c r="W9" s="148"/>
       <c r="AA9" s="148"/>
     </row>
-    <row r="10" spans="1:27" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:27" ht="16" x14ac:dyDescent="0.2">
       <c r="B10" s="86" t="s">
         <v>171</v>
       </c>
@@ -18786,7 +18798,7 @@
         <v>243.3008699286211</v>
       </c>
     </row>
-    <row r="11" spans="1:27" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:27" ht="16" x14ac:dyDescent="0.2">
       <c r="B11" s="86" t="s">
         <v>172</v>
       </c>
@@ -18863,7 +18875,7 @@
         <v>1186.75511810546</v>
       </c>
     </row>
-    <row r="12" spans="1:27" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:27" ht="16" x14ac:dyDescent="0.2">
       <c r="B12" s="86" t="s">
         <v>173</v>
       </c>
@@ -18940,7 +18952,7 @@
         <v>2351.124799326773</v>
       </c>
     </row>
-    <row r="13" spans="1:27" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:27" ht="16" x14ac:dyDescent="0.2">
       <c r="B13" s="86" t="s">
         <v>174</v>
       </c>
@@ -19017,7 +19029,7 @@
         <v>101.2433837589132</v>
       </c>
     </row>
-    <row r="14" spans="1:27" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:27" ht="16" x14ac:dyDescent="0.2">
       <c r="B14" s="86" t="s">
         <v>175</v>
       </c>
@@ -19094,7 +19106,7 @@
         <v>0.65670630121913887</v>
       </c>
     </row>
-    <row r="15" spans="1:27" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:27" ht="16" x14ac:dyDescent="0.2">
       <c r="B15" s="86" t="s">
         <v>176</v>
       </c>
@@ -19171,7 +19183,7 @@
         <v>1728.0518698642729</v>
       </c>
     </row>
-    <row r="16" spans="1:27" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:27" ht="16" x14ac:dyDescent="0.2">
       <c r="B16" s="86" t="s">
         <v>167</v>
       </c>
@@ -19248,7 +19260,7 @@
         <v>1162.3330694430681</v>
       </c>
     </row>
-    <row r="17" spans="1:28" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:28" ht="16" x14ac:dyDescent="0.2">
       <c r="B17" s="86" t="s">
         <v>168</v>
       </c>
@@ -19325,7 +19337,7 @@
         <v>4112.6452877858992</v>
       </c>
     </row>
-    <row r="18" spans="1:28" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:28" ht="16" x14ac:dyDescent="0.2">
       <c r="B18" s="86" t="s">
         <v>169</v>
       </c>
@@ -19402,7 +19414,7 @@
         <v>621.89294105808938</v>
       </c>
     </row>
-    <row r="19" spans="1:28" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:28" ht="16" x14ac:dyDescent="0.2">
       <c r="B19" s="86" t="s">
         <v>170</v>
       </c>
@@ -19479,7 +19491,7 @@
         <v>1327.3128858140831</v>
       </c>
     </row>
-    <row r="20" spans="1:28" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:28" x14ac:dyDescent="0.2">
       <c r="B20" t="s">
         <v>196</v>
       </c>
@@ -19556,7 +19568,7 @@
         <v>294.49680065914453</v>
       </c>
     </row>
-    <row r="22" spans="1:28" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:28" x14ac:dyDescent="0.2">
       <c r="E22" s="95"/>
       <c r="F22" s="95"/>
       <c r="L22" s="95"/>
@@ -19573,7 +19585,7 @@
       <c r="Z22" s="95"/>
       <c r="AB22" s="95"/>
     </row>
-    <row r="23" spans="1:28" ht="18.5" x14ac:dyDescent="0.45">
+    <row r="23" spans="1:28" ht="19" x14ac:dyDescent="0.25">
       <c r="A23" s="110" t="s">
         <v>185</v>
       </c>
@@ -19594,7 +19606,7 @@
       <c r="Z23" s="95"/>
       <c r="AB23" s="95"/>
     </row>
-    <row r="24" spans="1:28" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:28" x14ac:dyDescent="0.2">
       <c r="B24" t="s">
         <v>185</v>
       </c>
@@ -19696,7 +19708,7 @@
       </c>
       <c r="AB24" s="95"/>
     </row>
-    <row r="25" spans="1:28" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:28" x14ac:dyDescent="0.2">
       <c r="B25" t="s">
         <v>178</v>
       </c>
@@ -19798,7 +19810,7 @@
       </c>
       <c r="AB25" s="95"/>
     </row>
-    <row r="26" spans="1:28" s="171" customFormat="1" ht="12" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:28" s="171" customFormat="1" ht="12" x14ac:dyDescent="0.15">
       <c r="B26" s="213" t="s">
         <v>281</v>
       </c>
@@ -19870,7 +19882,7 @@
       </c>
       <c r="AB26" s="253"/>
     </row>
-    <row r="27" spans="1:28" s="97" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:28" s="97" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B27" s="99" t="s">
         <v>179</v>
       </c>
@@ -19966,7 +19978,7 @@
       </c>
       <c r="AB27" s="254"/>
     </row>
-    <row r="28" spans="1:28" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:28" x14ac:dyDescent="0.2">
       <c r="D28" s="102"/>
       <c r="E28" s="104"/>
       <c r="F28" s="104"/>
@@ -19989,7 +20001,7 @@
       <c r="Z28" s="95"/>
       <c r="AB28" s="95"/>
     </row>
-    <row r="29" spans="1:28" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:28" x14ac:dyDescent="0.2">
       <c r="D29" s="102"/>
       <c r="E29" s="104"/>
       <c r="F29" s="104"/>
@@ -20012,7 +20024,7 @@
       <c r="Z29" s="95"/>
       <c r="AB29" s="95"/>
     </row>
-    <row r="30" spans="1:28" ht="18.5" x14ac:dyDescent="0.45">
+    <row r="30" spans="1:28" ht="19" x14ac:dyDescent="0.25">
       <c r="A30" s="110" t="s">
         <v>188</v>
       </c>
@@ -20039,7 +20051,7 @@
       <c r="Z30" s="95"/>
       <c r="AB30" s="95"/>
     </row>
-    <row r="31" spans="1:28" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:28" x14ac:dyDescent="0.2">
       <c r="B31" t="s">
         <v>188</v>
       </c>
@@ -20138,7 +20150,7 @@
       </c>
       <c r="AB31" s="95"/>
     </row>
-    <row r="32" spans="1:28" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:28" x14ac:dyDescent="0.2">
       <c r="B32" t="s">
         <v>178</v>
       </c>
@@ -20240,7 +20252,7 @@
       </c>
       <c r="AB32" s="95"/>
     </row>
-    <row r="33" spans="1:28" s="171" customFormat="1" ht="12" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:28" s="171" customFormat="1" ht="12" x14ac:dyDescent="0.15">
       <c r="B33" s="213" t="s">
         <v>281</v>
       </c>
@@ -20315,7 +20327,7 @@
       </c>
       <c r="AB33" s="253"/>
     </row>
-    <row r="34" spans="1:28" s="97" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:28" s="97" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B34" s="99" t="s">
         <v>179</v>
       </c>
@@ -20411,7 +20423,7 @@
       </c>
       <c r="AB34" s="254"/>
     </row>
-    <row r="35" spans="1:28" s="97" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:28" s="97" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B35" s="99"/>
       <c r="D35" s="103"/>
       <c r="E35" s="225"/>
@@ -20439,7 +20451,7 @@
       <c r="AA35" s="183"/>
       <c r="AB35" s="254"/>
     </row>
-    <row r="36" spans="1:28" s="97" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:28" s="97" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B36" s="99"/>
       <c r="D36" s="103"/>
       <c r="E36" s="225"/>
@@ -20467,7 +20479,7 @@
       <c r="AA36" s="183"/>
       <c r="AB36" s="254"/>
     </row>
-    <row r="37" spans="1:28" ht="18.5" x14ac:dyDescent="0.45">
+    <row r="37" spans="1:28" ht="19" x14ac:dyDescent="0.25">
       <c r="A37" s="110" t="s">
         <v>184</v>
       </c>
@@ -20494,7 +20506,7 @@
       <c r="Z37" s="95"/>
       <c r="AB37" s="95"/>
     </row>
-    <row r="38" spans="1:28" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:28" x14ac:dyDescent="0.2">
       <c r="B38" t="s">
         <v>273</v>
       </c>
@@ -20541,7 +20553,7 @@
       <c r="Z38" s="95"/>
       <c r="AB38" s="95"/>
     </row>
-    <row r="39" spans="1:28" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:28" x14ac:dyDescent="0.2">
       <c r="B39" t="s">
         <v>178</v>
       </c>
@@ -20591,7 +20603,7 @@
       <c r="Z39" s="95"/>
       <c r="AB39" s="95"/>
     </row>
-    <row r="40" spans="1:28" s="97" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:28" s="97" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B40" s="99" t="s">
         <v>179</v>
       </c>
@@ -20671,7 +20683,7 @@
       </c>
       <c r="AB40" s="254"/>
     </row>
-    <row r="41" spans="1:28" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:28" x14ac:dyDescent="0.2">
       <c r="D41" s="102"/>
       <c r="E41" s="104"/>
       <c r="F41" s="104"/>
@@ -20694,7 +20706,7 @@
       <c r="Z41" s="95"/>
       <c r="AB41" s="95"/>
     </row>
-    <row r="42" spans="1:28" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:28" x14ac:dyDescent="0.2">
       <c r="D42" s="102"/>
       <c r="E42" s="104"/>
       <c r="F42" s="104"/>
@@ -20717,7 +20729,7 @@
       <c r="Z42" s="95"/>
       <c r="AB42" s="95"/>
     </row>
-    <row r="43" spans="1:28" ht="18.5" x14ac:dyDescent="0.45">
+    <row r="43" spans="1:28" ht="19" x14ac:dyDescent="0.25">
       <c r="A43" s="110" t="s">
         <v>183</v>
       </c>
@@ -20744,7 +20756,7 @@
       <c r="Z43" s="95"/>
       <c r="AB43" s="95"/>
     </row>
-    <row r="44" spans="1:28" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:28" x14ac:dyDescent="0.2">
       <c r="B44" t="s">
         <v>273</v>
       </c>
@@ -20791,7 +20803,7 @@
       <c r="Z44" s="95"/>
       <c r="AB44" s="95"/>
     </row>
-    <row r="45" spans="1:28" x14ac:dyDescent="0.35">
+    <row r="45" spans="1:28" x14ac:dyDescent="0.2">
       <c r="B45" t="s">
         <v>178</v>
       </c>
@@ -20843,7 +20855,7 @@
       <c r="Z45" s="95"/>
       <c r="AB45" s="95"/>
     </row>
-    <row r="46" spans="1:28" s="97" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:28" s="97" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B46" s="99" t="s">
         <v>179</v>
       </c>
@@ -20923,7 +20935,7 @@
       </c>
       <c r="AB46" s="254"/>
     </row>
-    <row r="47" spans="1:28" x14ac:dyDescent="0.35">
+    <row r="47" spans="1:28" x14ac:dyDescent="0.2">
       <c r="D47" s="102"/>
       <c r="E47" s="104"/>
       <c r="F47" s="104"/>
@@ -20946,7 +20958,7 @@
       <c r="Z47" s="95"/>
       <c r="AB47" s="95"/>
     </row>
-    <row r="48" spans="1:28" x14ac:dyDescent="0.35">
+    <row r="48" spans="1:28" x14ac:dyDescent="0.2">
       <c r="D48" s="102"/>
       <c r="E48" s="104"/>
       <c r="F48" s="104"/>
@@ -20969,7 +20981,7 @@
       <c r="Z48" s="95"/>
       <c r="AB48" s="95"/>
     </row>
-    <row r="49" spans="1:28" ht="18.5" x14ac:dyDescent="0.45">
+    <row r="49" spans="1:28" ht="19" x14ac:dyDescent="0.25">
       <c r="A49" s="105" t="s">
         <v>189</v>
       </c>
@@ -20996,7 +21008,7 @@
       <c r="Z49" s="95"/>
       <c r="AB49" s="95"/>
     </row>
-    <row r="50" spans="1:28" x14ac:dyDescent="0.35">
+    <row r="50" spans="1:28" x14ac:dyDescent="0.2">
       <c r="B50" t="s">
         <v>189</v>
       </c>
@@ -21095,7 +21107,7 @@
       </c>
       <c r="AB50" s="95"/>
     </row>
-    <row r="51" spans="1:28" x14ac:dyDescent="0.35">
+    <row r="51" spans="1:28" x14ac:dyDescent="0.2">
       <c r="B51" t="s">
         <v>178</v>
       </c>
@@ -21197,7 +21209,7 @@
       </c>
       <c r="AB51" s="95"/>
     </row>
-    <row r="52" spans="1:28" s="171" customFormat="1" ht="12" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:28" s="171" customFormat="1" ht="12" x14ac:dyDescent="0.15">
       <c r="B52" s="213" t="s">
         <v>281</v>
       </c>
@@ -21278,7 +21290,7 @@
       </c>
       <c r="AB52" s="253"/>
     </row>
-    <row r="53" spans="1:28" s="97" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="53" spans="1:28" s="97" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B53" s="99" t="s">
         <v>179</v>
       </c>
@@ -21374,7 +21386,7 @@
       </c>
       <c r="AB53" s="254"/>
     </row>
-    <row r="54" spans="1:28" x14ac:dyDescent="0.35">
+    <row r="54" spans="1:28" x14ac:dyDescent="0.2">
       <c r="D54" s="102"/>
       <c r="E54" s="104"/>
       <c r="F54" s="104"/>
@@ -21397,7 +21409,7 @@
       <c r="Z54" s="95"/>
       <c r="AB54" s="95"/>
     </row>
-    <row r="55" spans="1:28" x14ac:dyDescent="0.35">
+    <row r="55" spans="1:28" x14ac:dyDescent="0.2">
       <c r="D55" s="102"/>
       <c r="E55" s="104"/>
       <c r="F55" s="104"/>
@@ -21420,7 +21432,7 @@
       <c r="Z55" s="95"/>
       <c r="AB55" s="95"/>
     </row>
-    <row r="56" spans="1:28" ht="18.5" x14ac:dyDescent="0.45">
+    <row r="56" spans="1:28" ht="19" x14ac:dyDescent="0.25">
       <c r="A56" s="105" t="s">
         <v>190</v>
       </c>
@@ -21447,7 +21459,7 @@
       <c r="Z56" s="95"/>
       <c r="AB56" s="95"/>
     </row>
-    <row r="57" spans="1:28" x14ac:dyDescent="0.35">
+    <row r="57" spans="1:28" ht="16" x14ac:dyDescent="0.2">
       <c r="B57" s="86" t="s">
         <v>190</v>
       </c>
@@ -21549,7 +21561,7 @@
       </c>
       <c r="AB57" s="95"/>
     </row>
-    <row r="58" spans="1:28" x14ac:dyDescent="0.35">
+    <row r="58" spans="1:28" x14ac:dyDescent="0.2">
       <c r="B58" t="s">
         <v>178</v>
       </c>
@@ -21651,7 +21663,7 @@
       </c>
       <c r="AB58" s="95"/>
     </row>
-    <row r="59" spans="1:28" s="171" customFormat="1" ht="12" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:28" s="171" customFormat="1" ht="12" x14ac:dyDescent="0.15">
       <c r="B59" s="213" t="s">
         <v>281</v>
       </c>
@@ -21729,7 +21741,7 @@
       </c>
       <c r="AB59" s="253"/>
     </row>
-    <row r="60" spans="1:28" s="97" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="60" spans="1:28" s="97" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B60" s="99" t="s">
         <v>179</v>
       </c>
@@ -21825,7 +21837,7 @@
       </c>
       <c r="AB60" s="254"/>
     </row>
-    <row r="61" spans="1:28" s="97" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="61" spans="1:28" s="97" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B61" s="99"/>
       <c r="D61" s="103"/>
       <c r="E61" s="225"/>
@@ -21853,7 +21865,7 @@
       <c r="AA61" s="183"/>
       <c r="AB61" s="254"/>
     </row>
-    <row r="62" spans="1:28" s="97" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="62" spans="1:28" s="97" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B62" s="99"/>
       <c r="D62" s="103"/>
       <c r="E62" s="225"/>
@@ -21881,7 +21893,7 @@
       <c r="AA62" s="183"/>
       <c r="AB62" s="254"/>
     </row>
-    <row r="63" spans="1:28" ht="18.5" x14ac:dyDescent="0.45">
+    <row r="63" spans="1:28" ht="19" x14ac:dyDescent="0.25">
       <c r="A63" s="105" t="s">
         <v>191</v>
       </c>
@@ -21908,7 +21920,7 @@
       <c r="Z63" s="95"/>
       <c r="AB63" s="95"/>
     </row>
-    <row r="64" spans="1:28" x14ac:dyDescent="0.35">
+    <row r="64" spans="1:28" x14ac:dyDescent="0.2">
       <c r="B64" t="s">
         <v>212</v>
       </c>
@@ -22007,7 +22019,7 @@
       </c>
       <c r="AB64" s="95"/>
     </row>
-    <row r="65" spans="1:32" x14ac:dyDescent="0.35">
+    <row r="65" spans="1:32" x14ac:dyDescent="0.2">
       <c r="B65" t="s">
         <v>178</v>
       </c>
@@ -22109,7 +22121,7 @@
       </c>
       <c r="AB65" s="95"/>
     </row>
-    <row r="66" spans="1:32" s="171" customFormat="1" ht="12" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:32" s="171" customFormat="1" ht="12" x14ac:dyDescent="0.15">
       <c r="B66" s="213" t="s">
         <v>281</v>
       </c>
@@ -22184,7 +22196,7 @@
       </c>
       <c r="AB66" s="253"/>
     </row>
-    <row r="67" spans="1:32" s="97" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="67" spans="1:32" s="97" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B67" s="99" t="s">
         <v>179</v>
       </c>
@@ -22284,7 +22296,7 @@
       <c r="AE67" s="150"/>
       <c r="AF67" s="150"/>
     </row>
-    <row r="68" spans="1:32" x14ac:dyDescent="0.35">
+    <row r="68" spans="1:32" x14ac:dyDescent="0.2">
       <c r="D68" s="102"/>
       <c r="E68" s="104"/>
       <c r="F68" s="104"/>
@@ -22307,7 +22319,7 @@
       <c r="Z68" s="95"/>
       <c r="AB68" s="95"/>
     </row>
-    <row r="69" spans="1:32" x14ac:dyDescent="0.35">
+    <row r="69" spans="1:32" x14ac:dyDescent="0.2">
       <c r="D69" s="102"/>
       <c r="E69" s="104"/>
       <c r="F69" s="104"/>
@@ -22330,7 +22342,7 @@
       <c r="Z69" s="95"/>
       <c r="AB69" s="95"/>
     </row>
-    <row r="70" spans="1:32" ht="18.5" x14ac:dyDescent="0.45">
+    <row r="70" spans="1:32" ht="19" x14ac:dyDescent="0.25">
       <c r="A70" s="105" t="s">
         <v>197</v>
       </c>
@@ -22357,7 +22369,7 @@
       <c r="Z70" s="95"/>
       <c r="AB70" s="95"/>
     </row>
-    <row r="71" spans="1:32" x14ac:dyDescent="0.35">
+    <row r="71" spans="1:32" x14ac:dyDescent="0.2">
       <c r="B71" t="s">
         <v>209</v>
       </c>
@@ -22456,7 +22468,7 @@
       </c>
       <c r="AB71" s="95"/>
     </row>
-    <row r="72" spans="1:32" x14ac:dyDescent="0.35">
+    <row r="72" spans="1:32" x14ac:dyDescent="0.2">
       <c r="B72" t="s">
         <v>178</v>
       </c>
@@ -22558,7 +22570,7 @@
       </c>
       <c r="AB72" s="95"/>
     </row>
-    <row r="73" spans="1:32" s="171" customFormat="1" ht="12" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:32" s="171" customFormat="1" ht="12" x14ac:dyDescent="0.15">
       <c r="B73" s="213" t="s">
         <v>281</v>
       </c>
@@ -22621,7 +22633,7 @@
       </c>
       <c r="AB73" s="253"/>
     </row>
-    <row r="74" spans="1:32" s="97" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="74" spans="1:32" s="97" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B74" s="99" t="s">
         <v>179</v>
       </c>
@@ -22717,7 +22729,7 @@
       </c>
       <c r="AB74" s="254"/>
     </row>
-    <row r="75" spans="1:32" x14ac:dyDescent="0.35">
+    <row r="75" spans="1:32" x14ac:dyDescent="0.2">
       <c r="E75" s="95"/>
       <c r="F75" s="95"/>
       <c r="L75" s="95"/>
@@ -22734,7 +22746,7 @@
       <c r="Z75" s="95"/>
       <c r="AB75" s="95"/>
     </row>
-    <row r="76" spans="1:32" x14ac:dyDescent="0.35">
+    <row r="76" spans="1:32" x14ac:dyDescent="0.2">
       <c r="E76" s="95"/>
       <c r="F76" s="95"/>
       <c r="L76" s="95"/>
@@ -22771,19 +22783,19 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{304CD302-ECA7-4CE9-B89D-A357A53FDBE8}">
-  <dimension ref="A1:M23"/>
+  <dimension ref="A1:M24"/>
   <sheetViews>
-    <sheetView zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="K11" sqref="K11"/>
+    <sheetView tabSelected="1" topLeftCell="E1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+      <selection activeCell="L12" sqref="L12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="20.453125" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="20.5" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="10.6328125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="23.1796875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="10.6640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="23.1640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>257</v>
       </c>
@@ -22824,233 +22836,241 @@
         <v>294</v>
       </c>
     </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A2" s="190">
-        <v>44104</v>
-      </c>
-      <c r="B2" s="102">
-        <f t="array" ref="B2:B23">TRANSPOSE('add-ons calculations'!F27:AA27)</f>
-        <v>-22.257396859939746</v>
+        <v>44012</v>
+      </c>
+      <c r="B2">
+        <v>0</v>
       </c>
       <c r="C2">
-        <f t="array" ref="C2:C23">TRANSPOSE('add-ons calculations'!F34:AA34)</f>
-        <v>-591.10500000000002</v>
+        <v>0</v>
       </c>
       <c r="D2">
-        <f t="array" ref="D2:D23">TRANSPOSE('add-ons calculations'!F40:AA40)</f>
-        <v>4.5999999999821739E-2</v>
+        <v>0</v>
       </c>
       <c r="E2">
-        <f t="array" ref="E2:E23">TRANSPOSE('add-ons calculations'!F46:AA46)</f>
         <v>0</v>
       </c>
       <c r="F2">
-        <f t="array" ref="F2:F23">TRANSPOSE('add-ons calculations'!F53:AA53)</f>
-        <v>3.3000000000129148E-2</v>
+        <v>0</v>
       </c>
       <c r="G2">
-        <f t="array" ref="G2:G23">TRANSPOSE('add-ons calculations'!F60:AA60)</f>
-        <v>594.45100000000002</v>
+        <v>0</v>
       </c>
       <c r="H2">
-        <f t="array" ref="H2:H23">TRANSPOSE('add-ons calculations'!F67:AA67)</f>
-        <v>0.60799999999994725</v>
+        <v>0</v>
       </c>
       <c r="I2">
-        <f t="array" ref="I2:I23">TRANSPOSE('add-ons calculations'!F74:AA74)</f>
-        <v>44.822614367357801</v>
+        <v>0</v>
       </c>
       <c r="J2" s="102">
         <f>'add-ons calculations'!E71</f>
         <v>279.25</v>
       </c>
-    </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="K2" s="102"/>
+      <c r="L2" cm="1">
+        <f t="array" ref="L2:L6">TRANSPOSE(main!L35:P35)/1000</f>
+        <v>834.93333333333328</v>
+      </c>
+      <c r="M2" cm="1">
+        <f t="array" ref="M2:M12">TRANSPOSE(main!L38:V38)/1000</f>
+        <v>277.60000000000002</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A3" s="190">
-        <v>44196</v>
-      </c>
-      <c r="B3">
-        <v>-26.789650629444708</v>
+        <v>44104</v>
+      </c>
+      <c r="B3" s="102">
+        <f t="array" ref="B3:B24">TRANSPOSE('add-ons calculations'!F27:AA27)</f>
+        <v>-22.257396859939746</v>
       </c>
       <c r="C3">
-        <v>-630.45068126596811</v>
+        <f t="array" ref="C3:C24">TRANSPOSE('add-ons calculations'!F34:AA34)</f>
+        <v>-591.10500000000002</v>
       </c>
       <c r="D3">
-        <v>9.1220108456809612E-2</v>
+        <f t="array" ref="D3:D24">TRANSPOSE('add-ons calculations'!F40:AA40)</f>
+        <v>4.5999999999821739E-2</v>
       </c>
       <c r="E3">
-        <v>1.9071502101439819E-3</v>
+        <f t="array" ref="E3:E24">TRANSPOSE('add-ons calculations'!F46:AA46)</f>
+        <v>0</v>
       </c>
       <c r="F3">
-        <v>39.284047628965254</v>
+        <f t="array" ref="F3:F24">TRANSPOSE('add-ons calculations'!F53:AA53)</f>
+        <v>3.3000000000129148E-2</v>
       </c>
       <c r="G3">
-        <v>314.07836196786297</v>
+        <f t="array" ref="G3:G24">TRANSPOSE('add-ons calculations'!F60:AA60)</f>
+        <v>594.45100000000002</v>
       </c>
       <c r="H3">
-        <v>-833.73947605477315</v>
+        <f t="array" ref="H3:H24">TRANSPOSE('add-ons calculations'!F67:AA67)</f>
+        <v>0.60799999999994725</v>
       </c>
       <c r="I3">
-        <v>69.242163837897039</v>
+        <f t="array" ref="I3:I24">TRANSPOSE('add-ons calculations'!F74:AA74)</f>
+        <v>44.822614367357801</v>
       </c>
       <c r="J3" s="102">
         <f>'add-ons calculations'!F71</f>
         <v>286.95061436735779</v>
       </c>
-      <c r="K3" cm="1">
-        <f t="array" ref="K3:K11">TRANSPOSE(main!N33:V33)/1000</f>
+      <c r="K3" s="102" cm="1">
+        <f t="array" ref="K3:K12">TRANSPOSE(main!M33:V33)/1000</f>
+        <v>874.87800000000004</v>
+      </c>
+      <c r="L3">
+        <v>738.2</v>
+      </c>
+      <c r="M3">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A4" s="190">
+        <v>44196</v>
+      </c>
+      <c r="B4">
+        <v>-26.789650629444708</v>
+      </c>
+      <c r="C4">
+        <v>-630.45068126596811</v>
+      </c>
+      <c r="D4">
+        <v>9.1220108456809612E-2</v>
+      </c>
+      <c r="E4">
+        <v>1.9071502101439819E-3</v>
+      </c>
+      <c r="F4">
+        <v>39.284047628965254</v>
+      </c>
+      <c r="G4">
+        <v>314.07836196786297</v>
+      </c>
+      <c r="H4">
+        <v>-833.73947605477315</v>
+      </c>
+      <c r="I4">
+        <v>69.242163837897039</v>
+      </c>
+      <c r="J4" s="102"/>
+      <c r="K4" s="102">
         <v>337.8</v>
       </c>
-      <c r="L3" cm="1">
-        <f t="array" ref="L3:L11">TRANSPOSE(main!N35:V35)/1000</f>
+      <c r="L4">
         <v>257.8</v>
       </c>
-      <c r="M3" cm="1">
-        <f t="array" ref="M3:M11">TRANSPOSE(main!N38:V38)/1000</f>
+      <c r="M4">
         <v>80</v>
       </c>
     </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A4" s="190">
+    <row r="5" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A5" s="190">
         <v>44286</v>
       </c>
-      <c r="B4">
+      <c r="B5">
         <v>-32.762764634016577</v>
       </c>
-      <c r="C4">
+      <c r="C5">
         <v>-627.6397000131858</v>
       </c>
-      <c r="D4">
+      <c r="D5">
         <v>9.2732986063538192E-2</v>
       </c>
-      <c r="E4">
+      <c r="E5">
         <v>1.9387801313541786E-3</v>
       </c>
-      <c r="F4">
+      <c r="F5">
         <v>53.362256246811285</v>
       </c>
-      <c r="G4">
+      <c r="G5">
         <v>440.92675335280069</v>
       </c>
-      <c r="H4">
+      <c r="H5">
         <v>-1120.5437736769309</v>
       </c>
-      <c r="I4">
+      <c r="I5">
         <v>68.614647648729658</v>
       </c>
-      <c r="K4">
+      <c r="K5">
         <v>244</v>
       </c>
-      <c r="L4">
+      <c r="L5">
         <v>184</v>
       </c>
-      <c r="M4">
+      <c r="M5">
         <v>60</v>
       </c>
     </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A5" s="190">
+    <row r="6" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A6" s="190">
         <v>44377</v>
       </c>
-      <c r="B5">
+      <c r="B6">
         <v>-40.594652008438686</v>
       </c>
-      <c r="C5">
+      <c r="C6">
         <v>-620.837644585357</v>
       </c>
-      <c r="D5">
+      <c r="D6">
         <v>9.4207574237998415E-2</v>
       </c>
-      <c r="E5">
+      <c r="E6">
         <v>1.969609530561911E-3</v>
       </c>
-      <c r="F5">
+      <c r="F6">
         <v>63.467484623819473</v>
       </c>
-      <c r="G5">
+      <c r="G6">
         <v>517.2278108710334</v>
       </c>
-      <c r="H5">
+      <c r="H6">
         <v>-1124.95583479476</v>
       </c>
-      <c r="I5">
+      <c r="I6">
         <v>56.665943583511762</v>
       </c>
-      <c r="K5">
+      <c r="K6">
         <v>152</v>
       </c>
-      <c r="L5">
+      <c r="L6">
         <v>108</v>
-      </c>
-      <c r="M5">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A6" s="190">
-        <v>44469</v>
-      </c>
-      <c r="B6">
-        <v>-48.426539382860597</v>
-      </c>
-      <c r="C6">
-        <v>-601.63274124276234</v>
-      </c>
-      <c r="D6">
-        <v>9.5783673922369417E-2</v>
-      </c>
-      <c r="E6">
-        <v>2.0025612436285201E-3</v>
-      </c>
-      <c r="F6">
-        <v>68.411854322616591</v>
-      </c>
-      <c r="G6">
-        <v>495.34254097599887</v>
-      </c>
-      <c r="H6">
-        <v>-1129.7203572857679</v>
-      </c>
-      <c r="I6">
-        <v>72.288989016896693</v>
-      </c>
-      <c r="K6">
-        <v>44</v>
-      </c>
-      <c r="L6">
-        <v>0</v>
       </c>
       <c r="M6">
         <v>44</v>
       </c>
     </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A7" s="190">
-        <v>44561</v>
+        <v>44469</v>
       </c>
       <c r="B7">
-        <v>-46.071944194504397</v>
+        <v>-48.426539382860597</v>
       </c>
       <c r="C7">
-        <v>-620.38250935733299</v>
+        <v>-601.63274124276234</v>
       </c>
       <c r="D7">
-        <v>9.6839304535023984E-2</v>
+        <v>9.5783673922369417E-2</v>
       </c>
       <c r="E7">
-        <v>2.024631444953684E-3</v>
+        <v>2.0025612436285201E-3</v>
       </c>
       <c r="F7">
-        <v>70.152221482738696</v>
+        <v>68.411854322616591</v>
       </c>
       <c r="G7">
-        <v>463.78244356721166</v>
+        <v>495.34254097599887</v>
       </c>
       <c r="H7">
-        <v>-1134.856223009233</v>
+        <v>-1129.7203572857679</v>
       </c>
       <c r="I7">
-        <v>56.491059459541219</v>
+        <v>72.288989016896693</v>
       </c>
       <c r="K7">
         <v>44</v>
@@ -23062,33 +23082,33 @@
         <v>44</v>
       </c>
     </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A8" s="190">
-        <v>44651</v>
+        <v>44561</v>
       </c>
       <c r="B8">
-        <v>-0.30296205657262476</v>
+        <v>-46.071944194504397</v>
       </c>
       <c r="C8">
-        <v>-642.84660678631462</v>
+        <v>-620.38250935733299</v>
       </c>
       <c r="D8">
-        <v>0</v>
+        <v>9.6839304535023984E-2</v>
       </c>
       <c r="E8">
-        <v>0</v>
+        <v>2.024631444953684E-3</v>
       </c>
       <c r="F8">
-        <v>71.892588642860801</v>
+        <v>70.152221482738696</v>
       </c>
       <c r="G8">
-        <v>465.84239499799924</v>
+        <v>463.78244356721166</v>
       </c>
       <c r="H8">
-        <v>-1165.6072012785651</v>
+        <v>-1134.856223009233</v>
       </c>
       <c r="I8">
-        <v>40.106394189216502</v>
+        <v>56.491059459541219</v>
       </c>
       <c r="K8">
         <v>44</v>
@@ -23100,15 +23120,15 @@
         <v>44</v>
       </c>
     </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A9" s="190">
-        <v>44742</v>
+        <v>44651</v>
       </c>
       <c r="B9">
-        <v>2.0516331317836602</v>
+        <v>-0.30296205657262476</v>
       </c>
       <c r="C9">
-        <v>-662.07651217129251</v>
+        <v>-642.84660678631462</v>
       </c>
       <c r="D9">
         <v>0</v>
@@ -23117,16 +23137,16 @@
         <v>0</v>
       </c>
       <c r="F9">
-        <v>73.632955802982906</v>
+        <v>71.892588642860801</v>
       </c>
       <c r="G9">
-        <v>462.33858317017825</v>
+        <v>465.84239499799924</v>
       </c>
       <c r="H9">
-        <v>-1170.6993843086477</v>
+        <v>-1165.6072012785651</v>
       </c>
       <c r="I9">
-        <v>29.661254484149993</v>
+        <v>40.106394189216502</v>
       </c>
       <c r="K9">
         <v>44</v>
@@ -23138,15 +23158,15 @@
         <v>44</v>
       </c>
     </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A10" s="190">
-        <v>44834</v>
+        <v>44742</v>
       </c>
       <c r="B10">
-        <v>2.0305832892202886</v>
+        <v>2.0516331317836602</v>
       </c>
       <c r="C10">
-        <v>-680.01051493350417</v>
+        <v>-662.07651217129251</v>
       </c>
       <c r="D10">
         <v>0</v>
@@ -23155,16 +23175,16 @@
         <v>0</v>
       </c>
       <c r="F10">
-        <v>75.373322963105011</v>
+        <v>73.632955802982906</v>
       </c>
       <c r="G10">
-        <v>451.1307439185664</v>
+        <v>462.33858317017825</v>
       </c>
       <c r="H10">
-        <v>-1175.8566242647828</v>
+        <v>-1170.6993843086477</v>
       </c>
       <c r="I10">
-        <v>18.676309913851043</v>
+        <v>29.661254484149993</v>
       </c>
       <c r="K10">
         <v>44</v>
@@ -23176,15 +23196,15 @@
         <v>44</v>
       </c>
     </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A11" s="190">
-        <v>44926</v>
+        <v>44834</v>
       </c>
       <c r="B11">
-        <v>2.0097400394941758</v>
+        <v>2.0305832892202886</v>
       </c>
       <c r="C11">
-        <v>-696.48492380078505</v>
+        <v>-680.01051493350417</v>
       </c>
       <c r="D11">
         <v>0</v>
@@ -23193,16 +23213,16 @@
         <v>0</v>
       </c>
       <c r="F11">
-        <v>75.586446231400942</v>
+        <v>75.373322963105011</v>
       </c>
       <c r="G11">
-        <v>450.91316136999171</v>
+        <v>451.1307439185664</v>
       </c>
       <c r="H11">
-        <v>-1181.0789211469692</v>
+        <v>-1175.8566242647828</v>
       </c>
       <c r="I11">
-        <v>8.1784586186428498</v>
+        <v>18.676309913851043</v>
       </c>
       <c r="K11">
         <v>44</v>
@@ -23214,15 +23234,15 @@
         <v>44</v>
       </c>
     </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A12" s="190">
-        <v>45016</v>
+        <v>44926</v>
       </c>
       <c r="B12">
-        <v>1.9888967897680345</v>
+        <v>2.0097400394941758</v>
       </c>
       <c r="C12">
-        <v>-817.67623215503761</v>
+        <v>-696.48492380078505</v>
       </c>
       <c r="D12">
         <v>0</v>
@@ -23231,27 +23251,33 @@
         <v>0</v>
       </c>
       <c r="F12">
-        <v>75.799569499696645</v>
+        <v>75.586446231400942</v>
       </c>
       <c r="G12">
         <v>450.91316136999171</v>
       </c>
       <c r="H12">
-        <v>-1186.3781034872188</v>
+        <v>-1181.0789211469692</v>
       </c>
       <c r="I12">
-        <v>-2.8700840526758213</v>
-      </c>
-    </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.35">
+        <v>8.1784586186428498</v>
+      </c>
+      <c r="K12">
+        <v>44</v>
+      </c>
+      <c r="M12">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A13" s="190">
-        <v>45107</v>
+        <v>45016</v>
       </c>
       <c r="B13">
-        <v>1.9680535400418933</v>
+        <v>1.9888967897680345</v>
       </c>
       <c r="C13">
-        <v>-835.96322772532972</v>
+        <v>-817.67623215503761</v>
       </c>
       <c r="D13">
         <v>0</v>
@@ -23260,27 +23286,27 @@
         <v>0</v>
       </c>
       <c r="F13">
-        <v>76.012692767992348</v>
+        <v>75.799569499696645</v>
       </c>
       <c r="G13">
         <v>450.91316136999171</v>
       </c>
       <c r="H13">
-        <v>-1191.7009428914864</v>
+        <v>-1186.3781034872188</v>
       </c>
       <c r="I13">
-        <v>-3.0081206958325879</v>
-      </c>
-    </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.35">
+        <v>-2.8700840526758213</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A14" s="190">
-        <v>45199</v>
+        <v>45107</v>
       </c>
       <c r="B14">
-        <v>1.9472102903157804</v>
+        <v>1.9680535400418933</v>
       </c>
       <c r="C14">
-        <v>-854.1375918451696</v>
+        <v>-835.96322772532972</v>
       </c>
       <c r="D14">
         <v>0</v>
@@ -23289,27 +23315,27 @@
         <v>0</v>
       </c>
       <c r="F14">
-        <v>76.225816036288279</v>
+        <v>76.012692767992348</v>
       </c>
       <c r="G14">
         <v>450.91316136999171</v>
       </c>
       <c r="H14">
-        <v>-1197.1006677538157</v>
+        <v>-1191.7009428914864</v>
       </c>
       <c r="I14">
-        <v>-3.1545408316389967</v>
-      </c>
-    </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.35">
+        <v>-3.0081206958325879</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A15" s="190">
-        <v>45291</v>
+        <v>45199</v>
       </c>
       <c r="B15">
-        <v>1.9691524171809078</v>
+        <v>1.9472102903157804</v>
       </c>
       <c r="C15">
-        <v>-859.85618944066186</v>
+        <v>-854.1375918451696</v>
       </c>
       <c r="D15">
         <v>0</v>
@@ -23318,27 +23344,27 @@
         <v>0</v>
       </c>
       <c r="F15">
-        <v>76.806290770357236</v>
+        <v>76.225816036288279</v>
       </c>
       <c r="G15">
         <v>450.91316136999171</v>
       </c>
       <c r="H15">
-        <v>-1202.5772780742061</v>
+        <v>-1197.1006677538157</v>
       </c>
       <c r="I15">
-        <v>-3.1755686603398772</v>
-      </c>
-    </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.35">
+        <v>-3.1545408316389967</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A16" s="190">
-        <v>45382</v>
+        <v>45291</v>
       </c>
       <c r="B16">
-        <v>1.9910945440460637</v>
+        <v>1.9691524171809078</v>
       </c>
       <c r="C16">
-        <v>-866.25057573887523</v>
+        <v>-859.85618944066186</v>
       </c>
       <c r="D16">
         <v>0</v>
@@ -23347,27 +23373,27 @@
         <v>0</v>
       </c>
       <c r="F16">
-        <v>77.386765504425966</v>
+        <v>76.806290770357236</v>
       </c>
       <c r="G16">
         <v>450.91316136999171</v>
       </c>
       <c r="H16">
-        <v>-1208.113031054645</v>
+        <v>-1202.5772780742061</v>
       </c>
       <c r="I16">
-        <v>-3.1974493010895912</v>
-      </c>
-    </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.35">
+        <v>-3.1755686603398772</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A17" s="190">
-        <v>45473</v>
+        <v>45382</v>
       </c>
       <c r="B17">
-        <v>2.0130366709111911</v>
+        <v>1.9910945440460637</v>
       </c>
       <c r="C17">
-        <v>-873.2644350145722</v>
+        <v>-866.25057573887523</v>
       </c>
       <c r="D17">
         <v>0</v>
@@ -23376,27 +23402,27 @@
         <v>0</v>
       </c>
       <c r="F17">
-        <v>77.967240238494924</v>
+        <v>77.386765504425966</v>
       </c>
       <c r="G17">
         <v>450.91316136999171</v>
       </c>
       <c r="H17">
-        <v>-1213.6606125670928</v>
+        <v>-1208.113031054645</v>
       </c>
       <c r="I17">
-        <v>-3.2198338574140166</v>
-      </c>
-    </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.35">
+        <v>-3.1974493010895912</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A18" s="190">
-        <v>45565</v>
+        <v>45473</v>
       </c>
       <c r="B18">
-        <v>2.0349787977763469</v>
+        <v>2.0130366709111911</v>
       </c>
       <c r="C18">
-        <v>-881.17934589388699</v>
+        <v>-873.2644350145722</v>
       </c>
       <c r="D18">
         <v>0</v>
@@ -23405,27 +23431,27 @@
         <v>0</v>
       </c>
       <c r="F18">
-        <v>78.547714972563881</v>
+        <v>77.967240238494924</v>
       </c>
       <c r="G18">
         <v>450.91316136999171</v>
       </c>
       <c r="H18">
-        <v>-1219.2377654095646</v>
+        <v>-1213.6606125670928</v>
       </c>
       <c r="I18">
-        <v>-3.2428576496751589</v>
-      </c>
-    </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.35">
+        <v>-3.2198338574140166</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A19" s="190">
-        <v>45657</v>
+        <v>45565</v>
       </c>
       <c r="B19">
-        <v>2.0627743883631524</v>
+        <v>2.0349787977763469</v>
       </c>
       <c r="C19">
-        <v>-887.54372249410221</v>
+        <v>-881.17934589388699</v>
       </c>
       <c r="D19">
         <v>0</v>
@@ -23434,27 +23460,27 @@
         <v>0</v>
       </c>
       <c r="F19">
-        <v>80.42363380420511</v>
+        <v>78.547714972563881</v>
       </c>
       <c r="G19">
         <v>450.91316136999171</v>
       </c>
       <c r="H19">
-        <v>-1224.8444895820596</v>
+        <v>-1219.2377654095646</v>
       </c>
       <c r="I19">
-        <v>-3.2492354464859545</v>
-      </c>
-    </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.35">
+        <v>-3.2428576496751589</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A20" s="190">
-        <v>45747</v>
+        <v>45657</v>
       </c>
       <c r="B20">
-        <v>2.0905699789499579</v>
+        <v>2.0627743883631524</v>
       </c>
       <c r="C20">
-        <v>-893.79546764386509</v>
+        <v>-887.54372249410221</v>
       </c>
       <c r="D20">
         <v>0</v>
@@ -23463,27 +23489,27 @@
         <v>0</v>
       </c>
       <c r="F20">
-        <v>82.299552635846567</v>
+        <v>80.42363380420511</v>
       </c>
       <c r="G20">
         <v>450.91316136999171</v>
       </c>
       <c r="H20">
-        <v>-1230.4630422865646</v>
+        <v>-1224.8444895820596</v>
       </c>
       <c r="I20">
-        <v>-3.2638124910435522</v>
-      </c>
-    </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.35">
+        <v>-3.2492354464859545</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A21" s="190">
-        <v>45838</v>
+        <v>45747</v>
       </c>
       <c r="B21">
-        <v>2.1183655695367065</v>
+        <v>2.0905699789499579</v>
       </c>
       <c r="C21">
-        <v>-900.49773859542927</v>
+        <v>-893.79546764386509</v>
       </c>
       <c r="D21">
         <v>0</v>
@@ -23492,27 +23518,27 @@
         <v>0</v>
       </c>
       <c r="F21">
-        <v>84.175471467487796</v>
+        <v>82.299552635846567</v>
       </c>
       <c r="G21">
         <v>450.91316136999171</v>
       </c>
       <c r="H21">
-        <v>-1236.052023661046</v>
+        <v>-1230.4630422865646</v>
       </c>
       <c r="I21">
-        <v>-3.2709301722717896</v>
-      </c>
-    </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.35">
+        <v>-3.2638124910435522</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A22" s="190">
-        <v>45930</v>
+        <v>45838</v>
       </c>
       <c r="B22">
-        <v>2.1461611601234836</v>
+        <v>2.1183655695367065</v>
       </c>
       <c r="C22">
-        <v>-907.70685107403244</v>
+        <v>-900.49773859542927</v>
       </c>
       <c r="D22">
         <v>0</v>
@@ -23521,27 +23547,27 @@
         <v>0</v>
       </c>
       <c r="F22">
-        <v>86.051390299129253</v>
+        <v>84.175471467487796</v>
       </c>
       <c r="G22">
         <v>450.91316136999171</v>
       </c>
       <c r="H22">
-        <v>-1241.6469193015316</v>
+        <v>-1236.052023661046</v>
       </c>
       <c r="I22">
-        <v>-3.2785124534150327</v>
-      </c>
-    </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.35">
+        <v>-3.2709301722717896</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A23" s="190">
-        <v>46022</v>
+        <v>45930</v>
       </c>
       <c r="B23">
-        <v>2.1750851411117083</v>
+        <v>2.1461611601234836</v>
       </c>
       <c r="C23">
-        <v>-915.03501956812443</v>
+        <v>-907.70685107403244</v>
       </c>
       <c r="D23">
         <v>0</v>
@@ -23550,15 +23576,44 @@
         <v>0</v>
       </c>
       <c r="F23">
-        <v>87.452518457736005</v>
+        <v>86.051390299129253</v>
       </c>
       <c r="G23">
         <v>450.91316136999171</v>
       </c>
       <c r="H23">
+        <v>-1241.6469193015316</v>
+      </c>
+      <c r="I23">
+        <v>-3.2785124534150327</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A24" s="190">
+        <v>46022</v>
+      </c>
+      <c r="B24">
+        <v>2.1750851411117083</v>
+      </c>
+      <c r="C24">
+        <v>-915.03501956812443</v>
+      </c>
+      <c r="D24">
+        <v>0</v>
+      </c>
+      <c r="E24">
+        <v>0</v>
+      </c>
+      <c r="F24">
+        <v>87.452518457736005</v>
+      </c>
+      <c r="G24">
+        <v>450.91316136999171</v>
+      </c>
+      <c r="H24">
         <v>-1247.2418149420184</v>
       </c>
-      <c r="I23">
+      <c r="I24">
         <v>-3.2831814210312018</v>
       </c>
     </row>
@@ -23575,13 +23630,13 @@
       <selection activeCell="L6" sqref="L6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.81640625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="4" max="4" width="11.1796875" bestFit="1" customWidth="1"/>
-    <col min="10" max="23" width="12.6328125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11.1640625" bestFit="1" customWidth="1"/>
+    <col min="10" max="23" width="12.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:36" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:36" x14ac:dyDescent="0.2">
       <c r="D1" s="286" t="s">
         <v>21</v>
       </c>
@@ -23613,7 +23668,7 @@
       <c r="V1" s="286"/>
       <c r="W1" s="286"/>
     </row>
-    <row r="2" spans="1:36" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:36" x14ac:dyDescent="0.2">
       <c r="D2" s="199" t="s">
         <v>5</v>
       </c>
@@ -23675,7 +23730,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="3" spans="1:36" s="35" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:36" s="35" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A3" s="35" t="s">
         <v>14</v>
       </c>
@@ -23752,7 +23807,7 @@
       <c r="W3" s="267"/>
       <c r="AJ3" s="243"/>
     </row>
-    <row r="4" spans="1:36" s="35" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:36" s="35" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A4" s="35" t="s">
         <v>215</v>
       </c>
@@ -23838,7 +23893,7 @@
       </c>
       <c r="AJ4" s="243"/>
     </row>
-    <row r="5" spans="1:36" s="35" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:36" s="35" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A5" s="35" t="s">
         <v>15</v>
       </c>
@@ -23915,7 +23970,7 @@
       <c r="W5" s="274"/>
       <c r="AJ5" s="270"/>
     </row>
-    <row r="6" spans="1:36" s="35" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:36" s="35" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A6" s="35" t="s">
         <v>214</v>
       </c>
@@ -24009,18 +24064,18 @@
       <selection activeCell="E24" sqref="E24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.81640625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="2" max="2" width="25.1796875" customWidth="1"/>
-    <col min="7" max="7" width="10.81640625" style="146"/>
-    <col min="11" max="11" width="10.81640625" style="146"/>
-    <col min="15" max="15" width="10.81640625" style="146"/>
-    <col min="19" max="19" width="10.81640625" style="146"/>
-    <col min="23" max="23" width="10.81640625" style="146"/>
-    <col min="27" max="27" width="12.1796875" style="146" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="25.1640625" customWidth="1"/>
+    <col min="7" max="7" width="10.83203125" style="146"/>
+    <col min="11" max="11" width="10.83203125" style="146"/>
+    <col min="15" max="15" width="10.83203125" style="146"/>
+    <col min="19" max="19" width="10.83203125" style="146"/>
+    <col min="23" max="23" width="10.83203125" style="146"/>
+    <col min="27" max="27" width="12.1640625" style="146" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:27" ht="18.5" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:27" ht="19" x14ac:dyDescent="0.25">
       <c r="A1" s="291" t="s">
         <v>208</v>
       </c>
@@ -24035,7 +24090,7 @@
       <c r="X1" s="286"/>
       <c r="Y1" s="286"/>
     </row>
-    <row r="2" spans="1:27" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A2" s="293" t="s">
         <v>192</v>
       </c>
@@ -24047,7 +24102,7 @@
       <c r="I2" s="251"/>
       <c r="J2" s="299"/>
     </row>
-    <row r="3" spans="1:27" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A3" s="294"/>
       <c r="B3" s="127"/>
       <c r="C3" t="s">
@@ -24057,7 +24112,7 @@
       <c r="I3" s="251"/>
       <c r="J3" s="299"/>
     </row>
-    <row r="4" spans="1:27" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A4" s="294"/>
       <c r="B4" s="128"/>
       <c r="C4" t="s">
@@ -24067,7 +24122,7 @@
       <c r="I4" s="95"/>
       <c r="J4" s="95"/>
     </row>
-    <row r="5" spans="1:27" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A5" s="295"/>
       <c r="B5" s="129"/>
       <c r="C5" t="s">
@@ -24077,12 +24132,12 @@
       <c r="I5" s="95"/>
       <c r="J5" s="95"/>
     </row>
-    <row r="6" spans="1:27" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:27" x14ac:dyDescent="0.2">
       <c r="H6" s="95"/>
       <c r="I6" s="95"/>
       <c r="J6" s="95"/>
     </row>
-    <row r="7" spans="1:27" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C7" s="296" t="s">
         <v>160</v>
       </c>
@@ -24123,7 +24178,7 @@
         <v>279</v>
       </c>
     </row>
-    <row r="8" spans="1:27" s="269" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:27" s="269" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B8" s="269" t="s">
         <v>200</v>
       </c>
@@ -24203,7 +24258,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="9" spans="1:27" s="269" customFormat="1" ht="18.5" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:27" s="269" customFormat="1" ht="19" x14ac:dyDescent="0.25">
       <c r="A9" s="106" t="s">
         <v>165</v>
       </c>
@@ -24225,7 +24280,7 @@
       <c r="W9" s="148"/>
       <c r="AA9" s="148"/>
     </row>
-    <row r="10" spans="1:27" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:27" ht="16" x14ac:dyDescent="0.2">
       <c r="B10" s="86" t="s">
         <v>171</v>
       </c>
@@ -24302,7 +24357,7 @@
         <v>828.6749765144433</v>
       </c>
     </row>
-    <row r="11" spans="1:27" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:27" ht="16" x14ac:dyDescent="0.2">
       <c r="B11" s="86" t="s">
         <v>172</v>
       </c>
@@ -24379,7 +24434,7 @@
         <v>169.9444832776542</v>
       </c>
     </row>
-    <row r="12" spans="1:27" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:27" ht="16" x14ac:dyDescent="0.2">
       <c r="B12" s="86" t="s">
         <v>173</v>
       </c>
@@ -24456,7 +24511,7 @@
         <v>2355.9885775604512</v>
       </c>
     </row>
-    <row r="13" spans="1:27" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:27" ht="16" x14ac:dyDescent="0.2">
       <c r="B13" s="86" t="s">
         <v>174</v>
       </c>
@@ -24533,7 +24588,7 @@
         <v>80.167011412978511</v>
       </c>
     </row>
-    <row r="14" spans="1:27" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:27" ht="16" x14ac:dyDescent="0.2">
       <c r="B14" s="86" t="s">
         <v>175</v>
       </c>
@@ -24610,7 +24665,7 @@
         <v>0.65670630121913887</v>
       </c>
     </row>
-    <row r="15" spans="1:27" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:27" ht="16" x14ac:dyDescent="0.2">
       <c r="B15" s="86" t="s">
         <v>176</v>
       </c>
@@ -24687,7 +24742,7 @@
         <v>1151.8062286849761</v>
       </c>
     </row>
-    <row r="16" spans="1:27" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:27" ht="16" x14ac:dyDescent="0.2">
       <c r="B16" s="86" t="s">
         <v>167</v>
       </c>
@@ -24764,7 +24819,7 @@
         <v>1961.095884519679</v>
       </c>
     </row>
-    <row r="17" spans="1:28" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:28" ht="16" x14ac:dyDescent="0.2">
       <c r="B17" s="86" t="s">
         <v>168</v>
       </c>
@@ -24841,7 +24896,7 @@
         <v>4091.8476387732821</v>
       </c>
     </row>
-    <row r="18" spans="1:28" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:28" ht="16" x14ac:dyDescent="0.2">
       <c r="B18" s="86" t="s">
         <v>169</v>
       </c>
@@ -24918,7 +24973,7 @@
         <v>587.36016206119621</v>
       </c>
     </row>
-    <row r="19" spans="1:28" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:28" ht="16" x14ac:dyDescent="0.2">
       <c r="B19" s="86" t="s">
         <v>170</v>
       </c>
@@ -24995,7 +25050,7 @@
         <v>1326.2183753120521</v>
       </c>
     </row>
-    <row r="20" spans="1:28" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:28" x14ac:dyDescent="0.2">
       <c r="B20" t="s">
         <v>196</v>
       </c>
@@ -25072,12 +25127,12 @@
         <v>869.9054194417273</v>
       </c>
     </row>
-    <row r="21" spans="1:28" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:28" x14ac:dyDescent="0.2">
       <c r="H21" s="95"/>
       <c r="I21" s="95"/>
       <c r="J21" s="95"/>
     </row>
-    <row r="22" spans="1:28" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:28" x14ac:dyDescent="0.2">
       <c r="E22" s="95"/>
       <c r="F22" s="95"/>
       <c r="H22" s="95"/>
@@ -25097,7 +25152,7 @@
       <c r="Z22" s="95"/>
       <c r="AB22" s="95"/>
     </row>
-    <row r="23" spans="1:28" ht="18.5" x14ac:dyDescent="0.45">
+    <row r="23" spans="1:28" ht="19" x14ac:dyDescent="0.25">
       <c r="A23" s="110" t="s">
         <v>185</v>
       </c>
@@ -25121,7 +25176,7 @@
       <c r="Z23" s="95"/>
       <c r="AB23" s="95"/>
     </row>
-    <row r="24" spans="1:28" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:28" x14ac:dyDescent="0.2">
       <c r="B24" t="s">
         <v>185</v>
       </c>
@@ -25223,7 +25278,7 @@
       </c>
       <c r="AB24" s="95"/>
     </row>
-    <row r="25" spans="1:28" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:28" x14ac:dyDescent="0.2">
       <c r="B25" t="s">
         <v>178</v>
       </c>
@@ -25325,7 +25380,7 @@
       </c>
       <c r="AB25" s="95"/>
     </row>
-    <row r="26" spans="1:28" s="171" customFormat="1" ht="12" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:28" s="171" customFormat="1" ht="12" x14ac:dyDescent="0.15">
       <c r="B26" s="213" t="s">
         <v>281</v>
       </c>
@@ -25397,7 +25452,7 @@
       </c>
       <c r="AB26" s="253"/>
     </row>
-    <row r="27" spans="1:28" s="97" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:28" s="97" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B27" s="99" t="s">
         <v>179</v>
       </c>
@@ -25493,7 +25548,7 @@
       </c>
       <c r="AB27" s="254"/>
     </row>
-    <row r="28" spans="1:28" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:28" x14ac:dyDescent="0.2">
       <c r="D28" s="102"/>
       <c r="E28" s="104"/>
       <c r="F28" s="104"/>
@@ -25516,7 +25571,7 @@
       <c r="Z28" s="95"/>
       <c r="AB28" s="95"/>
     </row>
-    <row r="29" spans="1:28" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:28" x14ac:dyDescent="0.2">
       <c r="D29" s="102"/>
       <c r="E29" s="104"/>
       <c r="F29" s="104"/>
@@ -25539,7 +25594,7 @@
       <c r="Z29" s="95"/>
       <c r="AB29" s="95"/>
     </row>
-    <row r="30" spans="1:28" ht="18.5" x14ac:dyDescent="0.45">
+    <row r="30" spans="1:28" ht="19" x14ac:dyDescent="0.25">
       <c r="A30" s="110" t="s">
         <v>188</v>
       </c>
@@ -25566,7 +25621,7 @@
       <c r="Z30" s="95"/>
       <c r="AB30" s="95"/>
     </row>
-    <row r="31" spans="1:28" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:28" x14ac:dyDescent="0.2">
       <c r="B31" t="s">
         <v>188</v>
       </c>
@@ -25665,7 +25720,7 @@
       </c>
       <c r="AB31" s="95"/>
     </row>
-    <row r="32" spans="1:28" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:28" x14ac:dyDescent="0.2">
       <c r="B32" t="s">
         <v>178</v>
       </c>
@@ -25767,7 +25822,7 @@
       </c>
       <c r="AB32" s="95"/>
     </row>
-    <row r="33" spans="1:28" s="171" customFormat="1" ht="12" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:28" s="171" customFormat="1" ht="12" x14ac:dyDescent="0.15">
       <c r="B33" s="213" t="s">
         <v>281</v>
       </c>
@@ -25842,7 +25897,7 @@
       </c>
       <c r="AB33" s="253"/>
     </row>
-    <row r="34" spans="1:28" s="97" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:28" s="97" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B34" s="99" t="s">
         <v>179</v>
       </c>
@@ -25938,7 +25993,7 @@
       </c>
       <c r="AB34" s="254"/>
     </row>
-    <row r="35" spans="1:28" s="97" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:28" s="97" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B35" s="99"/>
       <c r="D35" s="103"/>
       <c r="E35" s="225"/>
@@ -25966,7 +26021,7 @@
       <c r="AA35" s="183"/>
       <c r="AB35" s="254"/>
     </row>
-    <row r="36" spans="1:28" s="97" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:28" s="97" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B36" s="99"/>
       <c r="D36" s="103"/>
       <c r="E36" s="225"/>
@@ -25994,7 +26049,7 @@
       <c r="AA36" s="183"/>
       <c r="AB36" s="254"/>
     </row>
-    <row r="37" spans="1:28" ht="18.5" x14ac:dyDescent="0.45">
+    <row r="37" spans="1:28" ht="19" x14ac:dyDescent="0.25">
       <c r="A37" s="105" t="s">
         <v>189</v>
       </c>
@@ -26021,7 +26076,7 @@
       <c r="Z37" s="95"/>
       <c r="AB37" s="95"/>
     </row>
-    <row r="38" spans="1:28" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:28" x14ac:dyDescent="0.2">
       <c r="B38" t="s">
         <v>189</v>
       </c>
@@ -26120,7 +26175,7 @@
       </c>
       <c r="AB38" s="95"/>
     </row>
-    <row r="39" spans="1:28" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:28" x14ac:dyDescent="0.2">
       <c r="B39" t="s">
         <v>178</v>
       </c>
@@ -26222,7 +26277,7 @@
       </c>
       <c r="AB39" s="95"/>
     </row>
-    <row r="40" spans="1:28" s="171" customFormat="1" ht="12" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:28" s="171" customFormat="1" ht="12" x14ac:dyDescent="0.15">
       <c r="B40" s="213" t="s">
         <v>281</v>
       </c>
@@ -26303,7 +26358,7 @@
       </c>
       <c r="AB40" s="253"/>
     </row>
-    <row r="41" spans="1:28" s="97" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:28" s="97" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B41" s="99" t="s">
         <v>179</v>
       </c>
@@ -26399,7 +26454,7 @@
       </c>
       <c r="AB41" s="254"/>
     </row>
-    <row r="42" spans="1:28" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:28" x14ac:dyDescent="0.2">
       <c r="D42" s="102"/>
       <c r="E42" s="104"/>
       <c r="F42" s="104"/>
@@ -26422,7 +26477,7 @@
       <c r="Z42" s="95"/>
       <c r="AB42" s="95"/>
     </row>
-    <row r="43" spans="1:28" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:28" x14ac:dyDescent="0.2">
       <c r="D43" s="102"/>
       <c r="E43" s="104"/>
       <c r="F43" s="104"/>
@@ -26445,7 +26500,7 @@
       <c r="Z43" s="95"/>
       <c r="AB43" s="95"/>
     </row>
-    <row r="44" spans="1:28" ht="18.5" x14ac:dyDescent="0.45">
+    <row r="44" spans="1:28" ht="19" x14ac:dyDescent="0.25">
       <c r="A44" s="105" t="s">
         <v>190</v>
       </c>
@@ -26472,7 +26527,7 @@
       <c r="Z44" s="95"/>
       <c r="AB44" s="95"/>
     </row>
-    <row r="45" spans="1:28" x14ac:dyDescent="0.35">
+    <row r="45" spans="1:28" ht="16" x14ac:dyDescent="0.2">
       <c r="B45" s="86" t="s">
         <v>190</v>
       </c>
@@ -26574,7 +26629,7 @@
       </c>
       <c r="AB45" s="95"/>
     </row>
-    <row r="46" spans="1:28" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:28" x14ac:dyDescent="0.2">
       <c r="B46" t="s">
         <v>178</v>
       </c>
@@ -26676,7 +26731,7 @@
       </c>
       <c r="AB46" s="95"/>
     </row>
-    <row r="47" spans="1:28" s="171" customFormat="1" ht="12" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:28" s="171" customFormat="1" ht="12" x14ac:dyDescent="0.15">
       <c r="B47" s="213" t="s">
         <v>281</v>
       </c>
@@ -26754,7 +26809,7 @@
       </c>
       <c r="AB47" s="253"/>
     </row>
-    <row r="48" spans="1:28" s="97" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="48" spans="1:28" s="97" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B48" s="99" t="s">
         <v>179</v>
       </c>
@@ -26850,7 +26905,7 @@
       </c>
       <c r="AB48" s="254"/>
     </row>
-    <row r="49" spans="2:28" s="97" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="49" spans="2:28" s="97" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B49" s="99"/>
       <c r="D49" s="103"/>
       <c r="E49" s="225"/>
@@ -26878,7 +26933,7 @@
       <c r="AA49" s="183"/>
       <c r="AB49" s="254"/>
     </row>
-    <row r="50" spans="2:28" s="97" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="50" spans="2:28" s="97" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B50" s="99"/>
       <c r="D50" s="103"/>
       <c r="E50" s="225"/>
@@ -26931,20 +26986,20 @@
       <selection activeCell="F47" sqref="F47"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.81640625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="10.453125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="23.1796875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="23.453125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="10.5" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="23.1640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="23.5" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="23" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="24.36328125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="25.1796875" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="25.453125" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="20.453125" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="18.36328125" customWidth="1"/>
+    <col min="5" max="5" width="24.33203125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="25.1640625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="25.5" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="20.5" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="18.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A1" s="271" t="s">
         <v>257</v>
       </c>
@@ -26973,7 +27028,7 @@
         <v>290</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A2" s="272">
         <v>44104</v>
       </c>
@@ -27010,7 +27065,7 @@
         <v>44.822614367357801</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A3" s="272">
         <v>44196</v>
       </c>
@@ -27039,7 +27094,7 @@
         <v>69.242163837897039</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A4" s="272">
         <v>44286</v>
       </c>
@@ -27068,7 +27123,7 @@
         <v>68.614647648729658</v>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A5" s="272">
         <v>44377</v>
       </c>
@@ -27097,7 +27152,7 @@
         <v>56.665943583511762</v>
       </c>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A6" s="272">
         <v>44469</v>
       </c>
@@ -27126,7 +27181,7 @@
         <v>72.288989016896693</v>
       </c>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A7" s="272">
         <v>44561</v>
       </c>
@@ -27155,7 +27210,7 @@
         <v>56.491059459541219</v>
       </c>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A8" s="272">
         <v>44651</v>
       </c>
@@ -27184,7 +27239,7 @@
         <v>40.106394189216502</v>
       </c>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A9" s="272">
         <v>44742</v>
       </c>
@@ -27213,7 +27268,7 @@
         <v>29.661254484149993</v>
       </c>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A10" s="272">
         <v>44834</v>
       </c>
@@ -27242,7 +27297,7 @@
         <v>18.676309913851043</v>
       </c>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A11" s="272">
         <v>44926</v>
       </c>
@@ -27271,7 +27326,7 @@
         <v>8.1784586186428498</v>
       </c>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A12" s="272">
         <v>45016</v>
       </c>
@@ -27300,7 +27355,7 @@
         <v>-2.8700840526758213</v>
       </c>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A13" s="272">
         <v>45107</v>
       </c>
@@ -27329,7 +27384,7 @@
         <v>-3.0081206958325879</v>
       </c>
     </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A14" s="272">
         <v>45199</v>
       </c>
@@ -27358,7 +27413,7 @@
         <v>-3.1545408316389967</v>
       </c>
     </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A15" s="272">
         <v>45291</v>
       </c>
@@ -27387,7 +27442,7 @@
         <v>-3.1755686603398772</v>
       </c>
     </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A16" s="272">
         <v>45382</v>
       </c>
@@ -27416,7 +27471,7 @@
         <v>-3.1974493010895912</v>
       </c>
     </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A17" s="272">
         <v>45473</v>
       </c>
@@ -27445,7 +27500,7 @@
         <v>-3.2198338574140166</v>
       </c>
     </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A18" s="272">
         <v>45565</v>
       </c>
@@ -27474,7 +27529,7 @@
         <v>-3.2428576496751589</v>
       </c>
     </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A19" s="272">
         <v>45657</v>
       </c>
@@ -27503,7 +27558,7 @@
         <v>-3.2492354464859545</v>
       </c>
     </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A20" s="272">
         <v>45747</v>
       </c>
@@ -27532,7 +27587,7 @@
         <v>-3.2638124910435522</v>
       </c>
     </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A21" s="272">
         <v>45838</v>
       </c>
@@ -27561,7 +27616,7 @@
         <v>-3.2709301722717896</v>
       </c>
     </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A22" s="272">
         <v>45930</v>
       </c>
@@ -27590,7 +27645,7 @@
         <v>-3.2785124534150327</v>
       </c>
     </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A23" s="272">
         <v>46022</v>
       </c>
@@ -27629,12 +27684,16 @@
   <dimension ref="A1:I34"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F27" sqref="F27"/>
+      <selection activeCell="I16" sqref="I16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="7.33203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="9" width="10.1640625" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:9" s="280" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:9" s="280" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A1" s="280" t="s">
         <v>325</v>
       </c>
@@ -27663,7 +27722,7 @@
         <v>333</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>295</v>
       </c>
@@ -27692,7 +27751,7 @@
         <v>21157.1</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>296</v>
       </c>
@@ -27721,7 +27780,7 @@
         <v>18583.5</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>297</v>
       </c>
@@ -27750,7 +27809,7 @@
         <v>1687.2</v>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>298</v>
       </c>
@@ -27779,7 +27838,7 @@
         <v>144.69999999999999</v>
       </c>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>299</v>
       </c>
@@ -27808,7 +27867,7 @@
         <v>1429.6</v>
       </c>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>300</v>
       </c>
@@ -27837,7 +27896,7 @@
         <v>205.3</v>
       </c>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>301</v>
       </c>
@@ -27866,7 +27925,7 @@
         <v>499.4</v>
       </c>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>302</v>
       </c>
@@ -27895,7 +27954,7 @@
         <v>1317.3</v>
       </c>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>334</v>
       </c>
@@ -27924,7 +27983,7 @@
         <v>7248</v>
       </c>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>335</v>
       </c>
@@ -27953,7 +28012,7 @@
         <v>12998</v>
       </c>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>304</v>
       </c>
@@ -27982,7 +28041,7 @@
         <v>79.099999999999994</v>
       </c>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>305</v>
       </c>
@@ -28011,7 +28070,7 @@
         <v>3488125</v>
       </c>
     </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>306</v>
       </c>
@@ -28040,7 +28099,7 @@
         <v>842733</v>
       </c>
     </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>307</v>
       </c>
@@ -28051,7 +28110,7 @@
         <v>15600</v>
       </c>
     </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>308</v>
       </c>
@@ -28080,7 +28139,7 @@
         <v>768678</v>
       </c>
     </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
         <v>309</v>
       </c>
@@ -28091,7 +28150,7 @@
         <v>27000</v>
       </c>
     </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
         <v>310</v>
       </c>
@@ -28102,7 +28161,7 @@
         <v>58400</v>
       </c>
     </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
         <v>311</v>
       </c>
@@ -28131,7 +28190,7 @@
         <v>1213308</v>
       </c>
     </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
         <v>312</v>
       </c>
@@ -28142,7 +28201,7 @@
         <v>865600</v>
       </c>
     </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
         <v>313</v>
       </c>
@@ -28153,7 +28212,7 @@
         <v>15000</v>
       </c>
     </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
         <v>314</v>
       </c>
@@ -28164,7 +28223,7 @@
         <v>73300</v>
       </c>
     </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
         <v>315</v>
       </c>
@@ -28175,7 +28234,7 @@
         <v>140000</v>
       </c>
     </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
         <v>316</v>
       </c>
@@ -28204,7 +28263,7 @@
         <v>728172</v>
       </c>
     </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
         <v>319</v>
       </c>
@@ -28233,7 +28292,7 @@
         <v>1486802</v>
       </c>
     </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
         <v>318</v>
       </c>
@@ -28262,7 +28321,7 @@
         <v>1335322</v>
       </c>
     </row>
-    <row r="27" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
         <v>320</v>
       </c>
@@ -28291,7 +28350,7 @@
         <v>486072</v>
       </c>
     </row>
-    <row r="28" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
         <v>321</v>
       </c>
@@ -28320,7 +28379,7 @@
         <v>835999</v>
       </c>
     </row>
-    <row r="29" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
         <v>322</v>
       </c>
@@ -28349,7 +28408,7 @@
         <v>691267</v>
       </c>
     </row>
-    <row r="30" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
         <v>323</v>
       </c>
@@ -28378,7 +28437,7 @@
         <v>1992677</v>
       </c>
     </row>
-    <row r="31" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
         <v>324</v>
       </c>
@@ -28407,7 +28466,7 @@
         <v>2329677</v>
       </c>
     </row>
-    <row r="32" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
         <v>303</v>
       </c>
@@ -28436,7 +28495,7 @@
         <v>20.245999999999999</v>
       </c>
     </row>
-    <row r="33" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
         <v>337</v>
       </c>
@@ -28447,7 +28506,7 @@
         <v>228300</v>
       </c>
     </row>
-    <row r="34" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
         <v>317</v>
       </c>
@@ -28468,12 +28527,12 @@
   <dimension ref="A1:B10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B1" sqref="B1:B10"/>
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.90625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>257</v>
       </c>
@@ -28481,7 +28540,7 @@
         <v>291</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A2" s="190">
         <v>44104</v>
       </c>
@@ -28489,7 +28548,7 @@
         <v>337800</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A3" s="190">
         <v>44196</v>
       </c>
@@ -28497,7 +28556,7 @@
         <v>244000</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A4" s="190">
         <v>44286</v>
       </c>
@@ -28505,7 +28564,7 @@
         <v>152000</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A5" s="190">
         <v>44377</v>
       </c>
@@ -28513,7 +28572,7 @@
         <v>44000</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A6" s="190">
         <v>44469</v>
       </c>
@@ -28521,7 +28580,7 @@
         <v>44000</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A7" s="190">
         <v>44561</v>
       </c>
@@ -28529,7 +28588,7 @@
         <v>44000</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A8" s="190">
         <v>44651</v>
       </c>
@@ -28537,7 +28596,7 @@
         <v>44000</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A9" s="190">
         <v>44742</v>
       </c>
@@ -28545,7 +28604,7 @@
         <v>44000</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A10" s="190">
         <v>44834</v>
       </c>
@@ -28566,25 +28625,25 @@
       <selection activeCell="B25" sqref="B25"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12" defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="12" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="24.6328125" style="158" customWidth="1"/>
-    <col min="2" max="2" width="16.6328125" style="158" customWidth="1"/>
-    <col min="3" max="3" width="7.453125" style="158" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="24.6640625" style="158" customWidth="1"/>
+    <col min="2" max="2" width="16.6640625" style="158" customWidth="1"/>
+    <col min="3" max="3" width="7.5" style="158" bestFit="1" customWidth="1"/>
     <col min="4" max="16384" width="12" style="158"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:16" x14ac:dyDescent="0.2">
       <c r="B2" s="158" t="s">
         <v>233</v>
       </c>
     </row>
-    <row r="3" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:16" x14ac:dyDescent="0.2">
       <c r="B3" s="158" t="s">
         <v>234</v>
       </c>
     </row>
-    <row r="4" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A4" s="158" t="s">
         <v>235</v>
       </c>
@@ -28628,7 +28687,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A5" s="158" t="s">
         <v>237</v>
       </c>
@@ -28691,7 +28750,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A6" s="158" t="s">
         <v>13</v>
       </c>
@@ -28732,7 +28791,7 @@
         <v>1.0000000000000002</v>
       </c>
     </row>
-    <row r="7" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:16" x14ac:dyDescent="0.2">
       <c r="B7" s="158" t="s">
         <v>238</v>
       </c>
@@ -28785,7 +28844,7 @@
         <v>7.4999999999999997E-2</v>
       </c>
     </row>
-    <row r="8" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:16" x14ac:dyDescent="0.2">
       <c r="B8" s="161" t="s">
         <v>239</v>
       </c>
@@ -28795,7 +28854,7 @@
         <v>0.45</v>
       </c>
     </row>
-    <row r="9" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:16" x14ac:dyDescent="0.2">
       <c r="B9" s="158" t="s">
         <v>240</v>
       </c>
@@ -28852,10 +28911,10 @@
         <v>0.99999999999999978</v>
       </c>
     </row>
-    <row r="11" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:16" x14ac:dyDescent="0.2">
       <c r="D11" s="164"/>
     </row>
-    <row r="14" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A14" s="158" t="s">
         <v>241</v>
       </c>
@@ -28887,7 +28946,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="15" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A15" s="158" t="s">
         <v>156</v>
       </c>
@@ -28915,7 +28974,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="16" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A16" s="279" t="s">
         <v>141</v>
       </c>
@@ -28955,7 +29014,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="17" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A17" s="158" t="s">
         <v>20</v>
       </c>
@@ -29001,7 +29060,7 @@
         <v>1.0000000000000002</v>
       </c>
     </row>
-    <row r="18" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:12" x14ac:dyDescent="0.2">
       <c r="B18" s="158" t="s">
         <v>238</v>
       </c>
@@ -29038,7 +29097,7 @@
         <v>1.5888244379207488E-2</v>
       </c>
     </row>
-    <row r="19" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:12" x14ac:dyDescent="0.2">
       <c r="B19" s="158" t="s">
         <v>242</v>
       </c>
@@ -29047,7 +29106,7 @@
         <v>0.86186821348990206</v>
       </c>
     </row>
-    <row r="20" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:12" x14ac:dyDescent="0.2">
       <c r="B20" s="162" t="s">
         <v>240</v>
       </c>
@@ -29089,7 +29148,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="21" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:12" x14ac:dyDescent="0.2">
       <c r="B21" s="162"/>
       <c r="C21" s="162"/>
       <c r="D21" s="167">
@@ -29121,22 +29180,22 @@
         <v>1</v>
       </c>
     </row>
-    <row r="22" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A22" s="158" t="s">
         <v>243</v>
       </c>
     </row>
-    <row r="23" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A23" s="158" t="s">
         <v>244</v>
       </c>
     </row>
-    <row r="24" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C24" s="158" t="s">
         <v>111</v>
       </c>
     </row>
-    <row r="25" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:12" x14ac:dyDescent="0.2">
       <c r="B25" s="158" t="s">
         <v>34</v>
       </c>
@@ -29144,7 +29203,7 @@
         <v>5654.6</v>
       </c>
     </row>
-    <row r="26" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:12" x14ac:dyDescent="0.2">
       <c r="B26" s="158" t="s">
         <v>245</v>
       </c>
@@ -29156,7 +29215,7 @@
         <v>0.18843065822516181</v>
       </c>
     </row>
-    <row r="27" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:12" x14ac:dyDescent="0.2">
       <c r="B27" s="158" t="s">
         <v>246</v>
       </c>
@@ -29168,7 +29227,7 @@
         <v>0.19065893255048985</v>
       </c>
     </row>
-    <row r="28" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:12" x14ac:dyDescent="0.2">
       <c r="B28" s="158" t="s">
         <v>156</v>
       </c>
@@ -29184,12 +29243,9 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
@@ -29410,15 +29466,27 @@
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{12E610D1-229D-4CC6-A1C9-48F28FFDA50F}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{170E13C6-C717-4C73-9EC5-EE5855C1B9D0}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="cac5d118-ba7b-4807-b700-df6f95cfff50"/>
+    <ds:schemaRef ds:uri="66951ee6-cd93-49c7-9437-e871b2a117d6"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -29443,18 +29511,9 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{170E13C6-C717-4C73-9EC5-EE5855C1B9D0}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{12E610D1-229D-4CC6-A1C9-48F28FFDA50F}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="cac5d118-ba7b-4807-b700-df6f95cfff50"/>
-    <ds:schemaRef ds:uri="66951ee6-cd93-49c7-9437-e871b2a117d6"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>